--- a/sequences/26_localizer.xlsx
+++ b/sequences/26_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>car</t>
   </si>
   <si>
     <t>dog</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
     <t>car/car003.png</t>
   </si>
   <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
     <t>car/car008.png</t>
   </si>
   <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
     <t>dog/dog002.png</t>
   </si>
   <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
   </si>
   <si>
     <t>car/car009.png</t>
   </si>
   <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
   </si>
   <si>
     <t>face/face018.png</t>
   </si>
   <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
   </si>
   <si>
     <t>face/face027.png</t>
   </si>
   <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
   </si>
   <si>
     <t>face/face016.png</t>
   </si>
   <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
     <t>face/face030.png</t>
   </si>
   <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
     <t>car/car022.png</t>
   </si>
   <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
   </si>
   <si>
     <t>flower/flower038.png</t>
   </si>
   <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
     <t>car/car038.png</t>
   </si>
   <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
   </si>
   <si>
     <t>car/car045.png</t>
   </si>
   <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
     <t>flower/flower040.png</t>
   </si>
   <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>face/face056.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
   </si>
   <si>
     <t>face/face051.png</t>
   </si>
   <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
   </si>
   <si>
     <t>car/car059.png</t>
   </si>
   <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
   </si>
   <si>
     <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.511660643795216</v>
+        <v>1.50936285531973</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.550722191845607</v>
+        <v>1.064339649660585</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.426179327667318</v>
+        <v>1.342929780187418</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.727425860321645</v>
+        <v>1.331555284065602</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.584655507844424</v>
+        <v>1.400651319205039</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.666905891768002</v>
+        <v>1.247589589446173</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.479559559616846</v>
+        <v>1.359828813784436</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.559274231578829</v>
+        <v>1.433516821654017</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.419728216565709</v>
+        <v>1.470764768853234</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.507392993978043</v>
+        <v>1.672249563641355</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.383681329047</v>
+        <v>1.543994500150434</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.197684677461116</v>
+        <v>1.547777048693846</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.583890187379664</v>
+        <v>1.483203874706766</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.691266078973423</v>
+        <v>1.719011245154124</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.641176468980989</v>
+        <v>1.442906526542002</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.652108938096213</v>
+        <v>1.34675310527036</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.432262973334795</v>
+        <v>1.562788370818431</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.549757131757131</v>
+        <v>1.380264978405324</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.557253746258672</v>
+        <v>1.495170798302556</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.412467991792162</v>
+        <v>1.709358501388086</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.50317363981837</v>
+        <v>1.530817120669121</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.428968298927722</v>
+        <v>1.760909376012703</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.229368063662222</v>
+        <v>1.393690587473362</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>1.51597521658833</v>
+        <v>1.732270413825939</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1.678772340973057</v>
+        <v>1.447603129742453</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>1.572616625863525</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.344528570740193</v>
+        <v>1.662445667753111</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.354444909348095</v>
+        <v>1.429126694294106</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.449189287105111</v>
+        <v>1.558703865566963</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.414825007887696</v>
+        <v>1.424076169559356</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.449024077795645</v>
+        <v>1.558899373002594</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.625083335318491</v>
+        <v>1.245056235866414</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.666988565310976</v>
+        <v>1.50700787207411</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.653193104436734</v>
+        <v>1.704557366720542</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1.416757688940538</v>
+        <v>1.681320156422274</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.62169716339784</v>
+        <v>1.667555869804239</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.451193857385209</v>
+        <v>1.322785865292179</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.575158941613266</v>
+        <v>1.608659854526866</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.61134509134816</v>
+        <v>1.686709933558252</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1.314111125971111</v>
+        <v>1.557168422116802</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.617141877655552</v>
+        <v>1.529675133248645</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.258324058210017</v>
+        <v>1.39292928505901</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.235694212646964</v>
+        <v>1.209651395897287</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.554655121633573</v>
+        <v>1.378885175513578</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.648553631458777</v>
+        <v>1.497652425418105</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.352465296700254</v>
+        <v>1.499057571818324</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.394023222601159</v>
+        <v>1.482420318229227</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.375490849118527</v>
+        <v>1.403247140114726</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.70897826106639</v>
+        <v>1.852507228006756</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.239769819829045</v>
+        <v>1.619683244573281</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.85789005288063</v>
+        <v>1.653275794713814</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>1.423996913776131</v>
+        <v>1.591939807067354</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.493998016741259</v>
+        <v>1.512915796400136</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.548551383068286</v>
+        <v>1.48077489296337</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.12617369812341</v>
+        <v>1.302713750044873</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.631293589096554</v>
+        <v>1.413824121802092</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.496136461519784</v>
+        <v>1.53820012176088</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.563610385318537</v>
+        <v>1.403421346380545</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.715810236493367</v>
+        <v>1.633218899349326</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.503632370015798</v>
+        <v>1.671736184653164</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.431359328987204</v>
+        <v>1.36214337972679</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.600285155501275</v>
+        <v>1.519934624769584</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.423000486944571</v>
+        <v>1.508839173287973</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.391881282784629</v>
+        <v>1.578548277364403</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.113248714013773</v>
+        <v>1.54410077431145</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1.23832182662174</v>
+        <v>1.786318693607969</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>1.457879907372236</v>
+        <v>1.215306272198618</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.601547681609821</v>
+        <v>1.670362206651894</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.556149693433912</v>
+        <v>1.494391948200971</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.469743527152289</v>
+        <v>1.488960487374592</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.508671867389254</v>
+        <v>1.450672589765422</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.695743702423119</v>
+        <v>1.748996659717718</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.427443777363692</v>
+        <v>1.474796196023362</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.495968197206376</v>
+        <v>1.461792071452789</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.342743144396298</v>
+        <v>1.147678040203055</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.458863107173652</v>
+        <v>1.574087436671204</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.399958370975243</v>
+        <v>1.405203974507979</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.579043056111643</v>
+        <v>1.93934181630935</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.531046259545451</v>
+        <v>1.369284954523732</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1.6420985034672</v>
+        <v>1.665595412877242</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.742465515468495</v>
+        <v>1.430956151649706</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.478814441190432</v>
+        <v>1.839398009545341</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.307651263876928</v>
+        <v>1.604668226925241</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.771121422559285</v>
+        <v>1.524170457336852</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.562236906096899</v>
+        <v>1.583297463539679</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.286644656569832</v>
+        <v>1.619860926339454</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.429720765684021</v>
+        <v>1.736407336950412</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.343349468929023</v>
+        <v>1.574514264504314</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.610805408490874</v>
+        <v>1.446636758004148</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1.590206905722871</v>
+        <v>1.580290835963883</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.497863730645836</v>
+        <v>1.284606078139088</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.499180451103229</v>
+        <v>1.613515635325207</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.590215170966497</v>
+        <v>1.337802007611431</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.727010727831306</v>
+        <v>1.523761101496065</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.50981943822301</v>
+        <v>1.776479220228232</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>1.885231150484048</v>
+        <v>1.34646581985693</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.447349149647343</v>
+        <v>1.33936687852744</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>1.644066649197947</v>
+        <v>1.368533259147101</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.544401041719468</v>
+        <v>1.390949336001983</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.39297351160948</v>
+        <v>1.368075056170865</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.557269286342651</v>
+        <v>1.899875463407438</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1.474661635219512</v>
+        <v>1.650104621684533</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.461811798097808</v>
+        <v>1.586067997291076</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.383000535093697</v>
+        <v>1.277610797941147</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.564670540005042</v>
+        <v>1.398417746833696</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.372178409765408</v>
+        <v>1.572172317072046</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.677985362750591</v>
+        <v>1.345126617505645</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.512286308338177</v>
+        <v>1.486755071789055</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.357654929078423</v>
+        <v>1.559003333019733</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.716282453460293</v>
+        <v>1.310658580826771</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.308510255172175</v>
+        <v>1.153529968171374</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.51902986540639</v>
+        <v>1.448746376327071</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.547374508960805</v>
+        <v>1.48280933603155</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.565416923441705</v>
+        <v>1.707931133003726</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.636780567535147</v>
+        <v>1.623875110391017</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.457362221447169</v>
+        <v>1.569822544631339</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.39816053933622</v>
+        <v>1.486746084861855</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.513023848007754</v>
+        <v>1.565603340445419</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.488740603258472</v>
+        <v>1.297234198114415</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.409757157058758</v>
+        <v>1.612160793280391</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.464140156525173</v>
+        <v>1.539333160296125</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.307513469738933</v>
+        <v>1.469251963376059</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.596895868610604</v>
+        <v>1.487896981392364</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.257072736588446</v>
+        <v>1.568030141055855</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.438901619997324</v>
+        <v>1.362633179010186</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.54178164840312</v>
+        <v>1.147810244038673</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.687560194375383</v>
+        <v>1.695189057440473</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.496511926447499</v>
+        <v>1.506594701211464</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.719678400314093</v>
+        <v>1.521809438779805</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.743749919503574</v>
+        <v>1.618910299302777</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.403808004677424</v>
+        <v>1.583523715337097</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.360833341648277</v>
+        <v>1.503747313155158</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.71640283611151</v>
+        <v>1.620130081602365</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.594139164847509</v>
+        <v>1.439076200761498</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.703576979326118</v>
+        <v>1.587836834858105</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.183536914327032</v>
+        <v>1.780928958271063</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.508232702197378</v>
+        <v>1.285804215772834</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.177651351014168</v>
+        <v>1.526030733121944</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="F140">
-        <v>1.319731667821223</v>
+        <v>1.401710291745148</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.555150050220755</v>
+        <v>1.491937911785902</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.591841101331417</v>
+        <v>1.617082776253819</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.331858038710634</v>
+        <v>1.660795516777182</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.468862199458627</v>
+        <v>1.501807076621276</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>1.437916477520902</v>
+        <v>1.549409797611718</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.722027963307921</v>
+        <v>1.685737727453899</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.462427045920349</v>
+        <v>1.672261525665014</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.391402251203202</v>
+        <v>1.56335676791786</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.390583044410134</v>
+        <v>1.469969485410428</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.446086846624531</v>
+        <v>1.434120725286911</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.812732170282798</v>
+        <v>1.267660120058642</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.330487140984178</v>
+        <v>1.308497310135933</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.668938052370508</v>
+        <v>1.33243251281029</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.543839120502582</v>
+        <v>1.415381904991353</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.635748069195456</v>
+        <v>1.67816994074358</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1.591592090475817</v>
+        <v>1.509970801196384</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.34835841875394</v>
+        <v>1.482354424569621</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.471520296218969</v>
+        <v>1.515932723917168</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.52283167093259</v>
+        <v>1.391377183173478</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.406466894357806</v>
+        <v>1.551375889993593</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.646260740745536</v>
+        <v>1.516760662066915</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.341141420686514</v>
+        <v>1.652326691272115</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.655011692955017</v>
+        <v>1.394346897850381</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>1</v>
       </c>
       <c r="F164">
-        <v>1.405990125673438</v>
+        <v>1.408000330739654</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.598127686968366</v>
+        <v>1.695521392810684</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.291322508450128</v>
+        <v>1.702761881766815</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.515392185784027</v>
+        <v>1.428916979119235</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.758395000368879</v>
+        <v>1.633685434733639</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.533019690979652</v>
+        <v>1.553792953868745</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.643376843976</v>
+        <v>1.45168627129138</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.716320246094109</v>
+        <v>1.633688322759506</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.438744313051048</v>
+        <v>1.683253270488808</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.31415870062585</v>
+        <v>1.561201915689771</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.270397840531646</v>
+        <v>1.216974103467481</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.296852799421461</v>
+        <v>1.326552965665409</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.361039130820945</v>
+        <v>1.509653313947964</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.546969488788696</v>
+        <v>1.554515310918748</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.636038981118922</v>
+        <v>1.603825743689534</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.703892349878742</v>
+        <v>1.408025547477161</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.479161883257015</v>
+        <v>1.2719060764871</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.63684962615348</v>
+        <v>1.352146940145907</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.563430241300795</v>
+        <v>1.755998345750473</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.427855197149369</v>
+        <v>1.450588931613104</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.482322670543914</v>
+        <v>1.397531926631181</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.601808933370205</v>
+        <v>1.304293812636961</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.68838219418347</v>
+        <v>1.537225520274894</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.245110671838061</v>
+        <v>1.584506768692472</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.717934647325929</v>
+        <v>1.501003667326017</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.403113680935757</v>
+        <v>1.526073470723317</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>1.32080779752218</v>
+        <v>1.525124035763333</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.479110969920668</v>
+        <v>1.613361047524516</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.549636129824597</v>
+        <v>1.498082351083401</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.673731104930695</v>
+        <v>1.597971994051378</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="F194">
-        <v>1.55250773516723</v>
+        <v>1.498068516264907</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.624412421024944</v>
+        <v>1.555772065505012</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.691048963097385</v>
+        <v>1.592987411043197</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.799556910265793</v>
+        <v>1.446086401767718</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.81047046888369</v>
+        <v>1.314727704562972</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="F199">
-        <v>1.472702714605398</v>
+        <v>1.369617223277966</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F200">
-        <v>1.711978433042142</v>
+        <v>1.428097928969853</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.536530667009426</v>
+        <v>1.778023627986795</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.413848708653487</v>
+        <v>1.286320089154035</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.661150234479948</v>
+        <v>1.569650654007037</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.640277127005204</v>
+        <v>1.506038958867398</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.423534323861151</v>
+        <v>1.657419276726836</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.742092754309497</v>
+        <v>1.349986812963527</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.58228090238001</v>
+        <v>1.618813163449424</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>1.398671813076241</v>
+        <v>1.512110849985915</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.509900649084788</v>
+        <v>1.48339024939967</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.523211886114479</v>
+        <v>1.391173629848574</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.386622403575609</v>
+        <v>1.429933015543372</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.658314821661921</v>
+        <v>1.36761784515208</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.517887628859294</v>
+        <v>1.347192821565651</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.525909203999163</v>
+        <v>1.138309121104328</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.557714329309312</v>
+        <v>1.586748696620568</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.507225035204999</v>
+        <v>1.574451109679401</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.495274133958397</v>
+        <v>1.63488110406754</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.412853252597682</v>
+        <v>1.770772436191622</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.659430547230136</v>
+        <v>1.033123049708139</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.679354210724857</v>
+        <v>1.358479928878641</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.465072275613519</v>
+        <v>1.573399458153123</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.523483116368758</v>
+        <v>1.398990708056314</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.630894672277725</v>
+        <v>1.418108726249749</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.22945619708983</v>
+        <v>1.568411113705938</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.377676725310613</v>
+        <v>1.257662146611919</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.564447892114975</v>
+        <v>1.657058347759958</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.874699302097532</v>
+        <v>1.621144354166721</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.456975325661428</v>
+        <v>1.614836858637889</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.390633404861701</v>
+        <v>1.556987450300078</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.462744519761353</v>
+        <v>1.191208221267155</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.214062344061861</v>
+        <v>1.804969400260676</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="F232">
-        <v>1.585966475605551</v>
+        <v>1.58068524108602</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.256643438831922</v>
+        <v>1.343930126162891</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.397971908676157</v>
+        <v>1.610817043326286</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.653661422631635</v>
+        <v>1.578816569884299</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.79056433582447</v>
+        <v>1.507454564088154</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.736861456098773</v>
+        <v>1.332051515846328</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.585534408538886</v>
+        <v>1.432315354700777</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.430268908103428</v>
+        <v>1.513417239026414</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.400671361806398</v>
+        <v>1.68283692199928</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.379587288828703</v>
+        <v>1.424375837249201</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.332492691503889</v>
+        <v>1.490867423164626</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.432559546468751</v>
+        <v>1.334166305394349</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.279493845378396</v>
+        <v>1.606531663576005</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.696219137834832</v>
+        <v>1.624557131343312</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.655133644625437</v>
+        <v>1.660824230465003</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>1.472965848597095</v>
+        <v>1.436315751467622</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.308934021191822</v>
+        <v>1.661136340431493</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
-        <v>1.417343598825281</v>
+        <v>1.146718828527971</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.427556306725706</v>
+        <v>1.533879985784077</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.356786206555458</v>
+        <v>1.329754842074018</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.641334260434482</v>
+        <v>1.410133426451204</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.562296857817285</v>
+        <v>1.671060094373198</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.474192947397348</v>
+        <v>1.36047039479259</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.629788072339482</v>
+        <v>1.503107281707297</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.49223317963443</v>
+        <v>1.526662108226969</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.3643567991995</v>
+        <v>1.563280590189872</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/26_localizer.xlsx
+++ b/sequences/26_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>car</t>
+    <t>house</t>
   </si>
   <si>
     <t>dog</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.50936285531973</v>
+        <v>1.611122175677805</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.064339649660585</v>
+        <v>1.422841783691385</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.342929780187418</v>
+        <v>1.670996432138725</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.331555284065602</v>
+        <v>1.545453686557875</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.400651319205039</v>
+        <v>1.623162949702734</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.247589589446173</v>
+        <v>1.922972877264919</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.359828813784436</v>
+        <v>1.443269146207532</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.433516821654017</v>
+        <v>1.396862719978027</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.470764768853234</v>
+        <v>1.264683413209552</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.672249563641355</v>
+        <v>1.580489846614858</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.543994500150434</v>
+        <v>1.533047194591624</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.547777048693846</v>
+        <v>1.603536954673604</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.483203874706766</v>
+        <v>1.455363305344631</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.719011245154124</v>
+        <v>1.373926114862443</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.442906526542002</v>
+        <v>1.49710392023354</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.34675310527036</v>
+        <v>1.535992299767085</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.562788370818431</v>
+        <v>1.112141177826465</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.380264978405324</v>
+        <v>1.221009812562992</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.495170798302556</v>
+        <v>1.285723182635001</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.709358501388086</v>
+        <v>1.417682710623057</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.530817120669121</v>
+        <v>1.323390541319111</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.760909376012703</v>
+        <v>1.418670262322797</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.393690587473362</v>
+        <v>1.378252747684118</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.732270413825939</v>
+        <v>1.59943598012919</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.447603129742453</v>
+        <v>1.41025156421327</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.572616625863525</v>
+        <v>1.536203796681439</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.662445667753111</v>
+        <v>1.862448529624682</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.429126694294106</v>
+        <v>1.480509990045855</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.558703865566963</v>
+        <v>1.305690002159268</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.424076169559356</v>
+        <v>1.487229542289212</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.558899373002594</v>
+        <v>1.474811377081316</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.245056235866414</v>
+        <v>1.46348290609821</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.50700787207411</v>
+        <v>1.790263095069456</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.704557366720542</v>
+        <v>1.578620179040424</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.681320156422274</v>
+        <v>1.46830702988316</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.667555869804239</v>
+        <v>1.400382781640074</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.322785865292179</v>
+        <v>1.506214598876154</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.608659854526866</v>
+        <v>1.79357264195143</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.686709933558252</v>
+        <v>1.480076428207159</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1.557168422116802</v>
+        <v>1.565617754395306</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.529675133248645</v>
+        <v>1.596633106996014</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1.39292928505901</v>
+        <v>1.433092553006399</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.209651395897287</v>
+        <v>1.154264933611568</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.378885175513578</v>
+        <v>1.438762173659123</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.497652425418105</v>
+        <v>1.84418959563838</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.499057571818324</v>
+        <v>1.339733641920358</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.482420318229227</v>
+        <v>1.224409745924328</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.403247140114726</v>
+        <v>1.567029186495823</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.852507228006756</v>
+        <v>1.669588760387687</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.619683244573281</v>
+        <v>1.554857217481901</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.653275794713814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.591939807067354</v>
+        <v>1.62017142757385</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.512915796400136</v>
+        <v>1.487626924248787</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.48077489296337</v>
+        <v>1.842718386403046</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.302713750044873</v>
+        <v>1.628091978243695</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.413824121802092</v>
+        <v>1.646031436148311</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.53820012176088</v>
+        <v>1.446869738611879</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.403421346380545</v>
+        <v>1.320245105064473</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.633218899349326</v>
+        <v>1.641495299858079</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.671736184653164</v>
+        <v>1.701453347854904</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.36214337972679</v>
+        <v>1.527997045545837</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.519934624769584</v>
+        <v>1.550221439436677</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.508839173287973</v>
+        <v>1.402041999057627</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.578548277364403</v>
+        <v>1.363473609855637</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.54410077431145</v>
+        <v>1.412746663926417</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.786318693607969</v>
+        <v>1.462645957055084</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1.215306272198618</v>
+        <v>1.362174696690232</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.670362206651894</v>
+        <v>1.458546343667505</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.494391948200971</v>
+        <v>1.608666635347783</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.488960487374592</v>
+        <v>1.442076832461139</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.450672589765422</v>
+        <v>1.740809958187025</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.748996659717718</v>
+        <v>1.304834324388962</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.474796196023362</v>
+        <v>1.661035365839593</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.461792071452789</v>
+        <v>1.646444935511204</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.147678040203055</v>
+        <v>1.763262415411041</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.574087436671204</v>
+        <v>1.522495227177872</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.405203974507979</v>
+        <v>1.68772550956149</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.93934181630935</v>
+        <v>1.489023611623516</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.369284954523732</v>
+        <v>1.185743069618297</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.665595412877242</v>
+        <v>1.313789849914371</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.430956151649706</v>
+        <v>1.515636020251307</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.839398009545341</v>
+        <v>1.331965411465737</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.604668226925241</v>
+        <v>1.295099053639278</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.524170457336852</v>
+        <v>1.270224086058389</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.583297463539679</v>
+        <v>1.464395200775398</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.619860926339454</v>
+        <v>1.568669171864634</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.736407336950412</v>
+        <v>1.448320383318869</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.574514264504314</v>
+        <v>1.406922489862691</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.446636758004148</v>
+        <v>1.51553800893474</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.580290835963883</v>
+        <v>1.563497273403445</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.284606078139088</v>
+        <v>1.531268467858817</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>1.613515635325207</v>
+        <v>1.593191844363889</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.337802007611431</v>
+        <v>1.18330626405001</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.523761101496065</v>
+        <v>1.255374325009622</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.776479220228232</v>
+        <v>1.302913355462125</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.34646581985693</v>
+        <v>1.807339627072735</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.33936687852744</v>
+        <v>1.757355977432755</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.368533259147101</v>
+        <v>1.500218059011636</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.390949336001983</v>
+        <v>1.562319991664809</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.368075056170865</v>
+        <v>1.592435232124988</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.899875463407438</v>
+        <v>1.355155683434664</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.650104621684533</v>
+        <v>1.155423256942903</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.586067997291076</v>
+        <v>1.485239945696486</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.277610797941147</v>
+        <v>1.592283382999185</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.398417746833696</v>
+        <v>1.436831639318409</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.572172317072046</v>
+        <v>1.460340739870996</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.345126617505645</v>
+        <v>1.378943457647483</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.486755071789055</v>
+        <v>1.499570870071442</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>1.559003333019733</v>
+        <v>1.326679582134614</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.310658580826771</v>
+        <v>1.73423368360429</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.153529968171374</v>
+        <v>1.2950393259647</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.448746376327071</v>
+        <v>1.588011383235583</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.48280933603155</v>
+        <v>1.782085045623062</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.707931133003726</v>
+        <v>1.555069703558781</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.623875110391017</v>
+        <v>1.653238110772663</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.569822544631339</v>
+        <v>1.216085469177297</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.486746084861855</v>
+        <v>1.368951404564537</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.565603340445419</v>
+        <v>1.254368807516195</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.297234198114415</v>
+        <v>1.394059129068767</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.612160793280391</v>
+        <v>1.561932019619462</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.539333160296125</v>
+        <v>1.576224479530464</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.469251963376059</v>
+        <v>1.775720777119732</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.487896981392364</v>
+        <v>1.70609412898066</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.568030141055855</v>
+        <v>1.410647550153421</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.362633179010186</v>
+        <v>1.69157496529802</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.147810244038673</v>
+        <v>1.549054542354052</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.695189057440473</v>
+        <v>1.273450145797101</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.506594701211464</v>
+        <v>1.519950082277665</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.521809438779805</v>
+        <v>1.47525196701587</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.618910299302777</v>
+        <v>1.445758950865159</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.583523715337097</v>
+        <v>1.549721313781173</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1.503747313155158</v>
+        <v>1.745294823455687</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.620130081602365</v>
+        <v>1.524879105613017</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.439076200761498</v>
+        <v>1.492534066492733</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.587836834858105</v>
+        <v>1.500445435985646</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.780928958271063</v>
+        <v>1.581170200188771</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.285804215772834</v>
+        <v>1.29513488597674</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>1.526030733121944</v>
+        <v>1.629253395132245</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.401710291745148</v>
+        <v>1.395161306953316</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.491937911785902</v>
+        <v>1.570981754032721</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>1.617082776253819</v>
+        <v>1.457940706292833</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.660795516777182</v>
+        <v>1.429117168275618</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.501807076621276</v>
+        <v>1.186629920184567</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1.549409797611718</v>
+        <v>1.555325644180691</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.685737727453899</v>
+        <v>1.383861634057793</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.672261525665014</v>
+        <v>1.550745446067175</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.56335676791786</v>
+        <v>1.533864547325695</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.469969485410428</v>
+        <v>1.467979173888796</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.434120725286911</v>
+        <v>1.672315306362494</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>1.267660120058642</v>
+        <v>1.492279437327917</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.308497310135933</v>
+        <v>1.607417629486354</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.33243251281029</v>
+        <v>1.577865797681354</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.415381904991353</v>
+        <v>1.421819150057895</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.67816994074358</v>
+        <v>1.670945606101577</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.509970801196384</v>
+        <v>1.265215961619139</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.482354424569621</v>
+        <v>1.942957459466618</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.515932723917168</v>
+        <v>1.512380711545191</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.391377183173478</v>
+        <v>1.598405495535855</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.551375889993593</v>
+        <v>1.345632406807919</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.516760662066915</v>
+        <v>1.543290936188972</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.652326691272115</v>
+        <v>1.411315795709685</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>1.394346897850381</v>
+        <v>1.351735114453287</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>1.408000330739654</v>
+        <v>1.437459293977468</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.695521392810684</v>
+        <v>1.565393586696071</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.702761881766815</v>
+        <v>1.362398293405331</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.428916979119235</v>
+        <v>1.232957140486025</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.633685434733639</v>
+        <v>1.510902912279635</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.553792953868745</v>
+        <v>1.463854405764116</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.45168627129138</v>
+        <v>1.66261799371281</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.633688322759506</v>
+        <v>1.398463229123002</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.683253270488808</v>
+        <v>1.339344164394479</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.561201915689771</v>
+        <v>1.493315588942476</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.216974103467481</v>
+        <v>1.569028759420083</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.326552965665409</v>
+        <v>1.252937364638732</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.509653313947964</v>
+        <v>1.527394333553352</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.554515310918748</v>
+        <v>1.401535138879788</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.603825743689534</v>
+        <v>1.741853335574503</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.408025547477161</v>
+        <v>1.580221239500305</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.2719060764871</v>
+        <v>1.517583795700427</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.352146940145907</v>
+        <v>1.340558631425309</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.755998345750473</v>
+        <v>1.596288570744081</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.450588931613104</v>
+        <v>1.630505666778044</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>1.397531926631181</v>
+        <v>1.299921072082573</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.304293812636961</v>
+        <v>1.241468943616457</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.537225520274894</v>
+        <v>1.481803553241058</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.584506768692472</v>
+        <v>1.241945676494312</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.501003667326017</v>
+        <v>1.520943580772171</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.526073470723317</v>
+        <v>1.566312706431627</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.525124035763333</v>
+        <v>1.443768832177374</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.613361047524516</v>
+        <v>1.507547829040023</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.498082351083401</v>
+        <v>1.277457964584426</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>1.597971994051378</v>
+        <v>1.523317363847403</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.498068516264907</v>
+        <v>1.474108583921458</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.555772065505012</v>
+        <v>1.796431646202246</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.592987411043197</v>
+        <v>1.244137427694735</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.446086401767718</v>
+        <v>1.775337548646148</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.314727704562972</v>
+        <v>1.424401020548649</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>1.369617223277966</v>
+        <v>1.396329064001085</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.428097928969853</v>
+        <v>1.234239249873885</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.778023627986795</v>
+        <v>1.433260689414264</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.286320089154035</v>
+        <v>1.373947051145503</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.569650654007037</v>
+        <v>1.27517469578329</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.506038958867398</v>
+        <v>1.404450307788797</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.657419276726836</v>
+        <v>1.457029824308151</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.349986812963527</v>
+        <v>1.430450594249088</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.618813163449424</v>
+        <v>1.446956533321858</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.512110849985915</v>
+        <v>1.518590627088788</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.48339024939967</v>
+        <v>1.421665664467321</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.391173629848574</v>
+        <v>1.419558977126512</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.429933015543372</v>
+        <v>1.667459121922456</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.36761784515208</v>
+        <v>1.600531885062307</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.347192821565651</v>
+        <v>1.497081437824045</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.138309121104328</v>
+        <v>1.576624099274034</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.586748696620568</v>
+        <v>1.736566836797406</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.574451109679401</v>
+        <v>1.315433342842738</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.63488110406754</v>
+        <v>1.402423252959346</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.770772436191622</v>
+        <v>1.521079590721398</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.033123049708139</v>
+        <v>1.510019585461903</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.358479928878641</v>
+        <v>1.66387003242275</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.573399458153123</v>
+        <v>1.645795285652201</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.398990708056314</v>
+        <v>1.634169788524177</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.418108726249749</v>
+        <v>1.159033382994541</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.568411113705938</v>
+        <v>1.566503647417095</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.257662146611919</v>
+        <v>1.553816972735693</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.657058347759958</v>
+        <v>1.410255052567744</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.621144354166721</v>
+        <v>1.465122133885653</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.614836858637889</v>
+        <v>1.392684411472412</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.556987450300078</v>
+        <v>1.531168797670424</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.191208221267155</v>
+        <v>1.400055291738507</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.804969400260676</v>
+        <v>1.140015326181781</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1.58068524108602</v>
+        <v>1.506957376962714</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.343930126162891</v>
+        <v>1.402235130130154</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.610817043326286</v>
+        <v>1.523644141328092</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.578816569884299</v>
+        <v>1.571589955282504</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.507454564088154</v>
+        <v>1.315941624762973</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.332051515846328</v>
+        <v>1.371478166904034</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.432315354700777</v>
+        <v>1.741437468937228</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>1.513417239026414</v>
+        <v>1.388427454658044</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.68283692199928</v>
+        <v>1.58280029359273</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>1.424375837249201</v>
+        <v>1.483892615613918</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.490867423164626</v>
+        <v>1.593900046519023</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.334166305394349</v>
+        <v>1.388187006389623</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>1.606531663576005</v>
+        <v>1.381466870708858</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.624557131343312</v>
+        <v>1.497327132028043</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.660824230465003</v>
+        <v>1.659995749299776</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.436315751467622</v>
+        <v>1.366592219589028</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.661136340431493</v>
+        <v>1.42754960183354</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F249">
-        <v>1.146718828527971</v>
+        <v>1.382629908673108</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.533879985784077</v>
+        <v>1.401795130988433</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.329754842074018</v>
+        <v>1.569585642947816</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.410133426451204</v>
+        <v>1.39670188292596</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.671060094373198</v>
+        <v>1.593242563482911</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.36047039479259</v>
+        <v>1.272477359976472</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.503107281707297</v>
+        <v>1.557965953786236</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
-        <v>1.526662108226969</v>
+        <v>1.501173063063294</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.563280590189872</v>
+        <v>1.743527461620764</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/26_localizer.xlsx
+++ b/sequences/26_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>flower</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
     <t>house</t>
   </si>
   <si>
-    <t>dog</t>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
   </si>
   <si>
     <t>flower/flower033.jpg</t>
   </si>
   <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
     <t>face/face043.jpg</t>
   </si>
   <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
+    <t>flower/flower036.jpg</t>
   </si>
   <si>
     <t>face/face036.jpg</t>
   </si>
   <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
   </si>
   <si>
     <t>house/house036.jpg</t>
   </si>
   <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
   </si>
   <si>
     <t>house/house054.jpg</t>
   </si>
   <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
     <t>dog/dog053.jpg</t>
   </si>
   <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
   </si>
   <si>
     <t>house/house062.jpg</t>
   </si>
   <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
+    <t>house/house048.jpg</t>
   </si>
   <si>
     <t>face/face057.jpg</t>
   </si>
   <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
   </si>
   <si>
     <t>face/face048.jpg</t>
   </si>
   <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
   </si>
   <si>
     <t>house/house071.jpg</t>
   </si>
   <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
     <t>house/house065.jpg</t>
   </si>
   <si>
-    <t>flower/flower073.jpg</t>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
   </si>
   <si>
     <t>dog/dog071.jpg</t>
   </si>
   <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
+    <t>flower/flower079.jpg</t>
   </si>
   <si>
     <t>dog/dog067.jpg</t>
   </si>
   <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
+    <t>house/house073.jpg</t>
   </si>
   <si>
     <t>dog/dog064.jpg</t>
   </si>
   <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
   </si>
   <si>
     <t>face/face088.jpg</t>
   </si>
   <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
     <t>dog/dog095.jpg</t>
   </si>
   <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
   </si>
   <si>
     <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.611122175677805</v>
+        <v>1.464592643048876</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.422841783691385</v>
+        <v>1.538122686871476</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.670996432138725</v>
+        <v>1.519816147453641</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.545453686557875</v>
+        <v>1.524476870567654</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.623162949702734</v>
+        <v>1.529984047740124</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.922972877264919</v>
+        <v>1.493425324033774</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.443269146207532</v>
+        <v>1.636309073401529</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.396862719978027</v>
+        <v>1.507062463661596</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.264683413209552</v>
+        <v>1.641270079812923</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.580489846614858</v>
+        <v>1.6292775635915</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.533047194591624</v>
+        <v>1.762727501707555</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.603536954673604</v>
+        <v>1.589510550698725</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.455363305344631</v>
+        <v>1.603120134373985</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1.373926114862443</v>
+        <v>1.531558860901615</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.49710392023354</v>
+        <v>1.714503081313047</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.535992299767085</v>
+        <v>1.720296503879704</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.112141177826465</v>
+        <v>1.443676701481237</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.221009812562992</v>
+        <v>1.376313496936246</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.285723182635001</v>
+        <v>1.386167353563847</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.417682710623057</v>
+        <v>1.473987844192261</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.323390541319111</v>
+        <v>1.639559960146952</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.418670262322797</v>
+        <v>1.539111335145603</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.378252747684118</v>
+        <v>1.345688935411072</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.59943598012919</v>
+        <v>1.689980204825144</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.41025156421327</v>
+        <v>1.531399245895171</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.536203796681439</v>
+        <v>1.185480855136527</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.862448529624682</v>
+        <v>1.394832824919785</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.480509990045855</v>
+        <v>1.569793981362083</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.305690002159268</v>
+        <v>1.559090480785656</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.487229542289212</v>
+        <v>1.473386061468272</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.474811377081316</v>
+        <v>1.384101944398705</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.46348290609821</v>
+        <v>1.315619013160267</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.790263095069456</v>
+        <v>1.508354416246122</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.578620179040424</v>
+        <v>1.483252133245342</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.46830702988316</v>
+        <v>1.082189192712168</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.400382781640074</v>
+        <v>1.397012632849725</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.506214598876154</v>
+        <v>1.721598974328888</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.79357264195143</v>
+        <v>1.291589014479815</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.480076428207159</v>
+        <v>1.237984558011598</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.565617754395306</v>
+        <v>1.471605453241158</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1.596633106996014</v>
+        <v>1.632397587857508</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.433092553006399</v>
+        <v>1.489619416290844</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.154264933611568</v>
+        <v>1.44318176925793</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.438762173659123</v>
+        <v>1.764858801144864</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.84418959563838</v>
+        <v>1.666818248771936</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.339733641920358</v>
+        <v>1.284469241043769</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.224409745924328</v>
+        <v>1.482743466634301</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.567029186495823</v>
+        <v>1.458228193879186</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1.669588760387687</v>
+        <v>1.431728923282972</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.554857217481901</v>
+        <v>1.202737660484743</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1.58331766547201</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.62017142757385</v>
+        <v>1.424817677437228</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.487626924248787</v>
+        <v>1.475372375130626</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.842718386403046</v>
+        <v>1.642193259605581</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.628091978243695</v>
+        <v>1.627700299510664</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.646031436148311</v>
+        <v>1.767671709260574</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>1.446869738611879</v>
+        <v>1.508628715584146</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.320245105064473</v>
+        <v>1.671181255061063</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.641495299858079</v>
+        <v>1.668075425183049</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.701453347854904</v>
+        <v>1.617981827971879</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.527997045545837</v>
+        <v>1.122379309342849</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.550221439436677</v>
+        <v>1.697023217719489</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1.402041999057627</v>
+        <v>1.816291925323147</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.363473609855637</v>
+        <v>1.231993776136733</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.412746663926417</v>
+        <v>1.373297573608889</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.462645957055084</v>
+        <v>1.564512672915061</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.362174696690232</v>
+        <v>1.744534914746062</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.458546343667505</v>
+        <v>1.571070792207286</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.608666635347783</v>
+        <v>1.549021722538021</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.442076832461139</v>
+        <v>1.283922136288465</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.740809958187025</v>
+        <v>1.422929657139349</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.304834324388962</v>
+        <v>1.535691476208349</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.661035365839593</v>
+        <v>1.419312863260634</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.646444935511204</v>
+        <v>1.504168208215171</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.763262415411041</v>
+        <v>1.464292507932303</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.522495227177872</v>
+        <v>1.492637034517527</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.68772550956149</v>
+        <v>1.569113910975974</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.489023611623516</v>
+        <v>1.418428681194439</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.185743069618297</v>
+        <v>1.361276559096027</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.313789849914371</v>
+        <v>1.504366600968746</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.515636020251307</v>
+        <v>1.576944933675627</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.331965411465737</v>
+        <v>1.590934288341358</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.295099053639278</v>
+        <v>1.254517681643382</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.270224086058389</v>
+        <v>1.488356198420693</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.464395200775398</v>
+        <v>1.317799114488321</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.568669171864634</v>
+        <v>1.523055799939056</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.448320383318869</v>
+        <v>1.468034209279027</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1.406922489862691</v>
+        <v>1.54547649201504</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.51553800893474</v>
+        <v>1.547155908813832</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.563497273403445</v>
+        <v>1.487263614984926</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.531268467858817</v>
+        <v>1.357143109879164</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1.593191844363889</v>
+        <v>1.740836590288827</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.18330626405001</v>
+        <v>1.435970743190129</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.255374325009622</v>
+        <v>1.662237474409498</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.302913355462125</v>
+        <v>1.523045098262278</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.807339627072735</v>
+        <v>1.38832033993102</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>1.757355977432755</v>
+        <v>1.348394916103468</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.500218059011636</v>
+        <v>1.43749465037091</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.562319991664809</v>
+        <v>1.598947462311753</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.592435232124988</v>
+        <v>1.460616723279665</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.355155683434664</v>
+        <v>1.204766319311048</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.155423256942903</v>
+        <v>1.763449195340367</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.485239945696486</v>
+        <v>1.511912985254335</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.592283382999185</v>
+        <v>1.601684626470363</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.436831639318409</v>
+        <v>1.604390322431671</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.460340739870996</v>
+        <v>1.711206161370535</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.378943457647483</v>
+        <v>1.564122890371506</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.499570870071442</v>
+        <v>1.722921809771028</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>1.326679582134614</v>
+        <v>1.424845410622961</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.73423368360429</v>
+        <v>1.536605735945553</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.2950393259647</v>
+        <v>1.574666215622148</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.588011383235583</v>
+        <v>1.676254969382326</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.782085045623062</v>
+        <v>1.497996617866705</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.555069703558781</v>
+        <v>1.592158557102447</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>1.653238110772663</v>
+        <v>1.845539187238959</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.216085469177297</v>
+        <v>1.575848944394889</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.368951404564537</v>
+        <v>1.691781502667185</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.254368807516195</v>
+        <v>1.534234916327504</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.394059129068767</v>
+        <v>1.609584143399011</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.561932019619462</v>
+        <v>1.445097121484926</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.576224479530464</v>
+        <v>1.34671674540054</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.775720777119732</v>
+        <v>1.150519222709761</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.70609412898066</v>
+        <v>1.263190597297963</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.410647550153421</v>
+        <v>1.454351076223601</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.69157496529802</v>
+        <v>1.777827536892541</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.549054542354052</v>
+        <v>1.474543666650179</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.273450145797101</v>
+        <v>1.480704534950181</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.519950082277665</v>
+        <v>1.538381973045805</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.47525196701587</v>
+        <v>1.459957118748925</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>1.445758950865159</v>
+        <v>1.617251933030799</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.549721313781173</v>
+        <v>1.634826019682828</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1.745294823455687</v>
+        <v>1.558897446559096</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.524879105613017</v>
+        <v>1.443074762243339</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.492534066492733</v>
+        <v>1.698569263507705</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.500445435985646</v>
+        <v>1.632319675887903</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.581170200188771</v>
+        <v>1.475810811645289</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.29513488597674</v>
+        <v>1.564219660288299</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.629253395132245</v>
+        <v>1.586333887272566</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.395161306953316</v>
+        <v>1.494731832688547</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.570981754032721</v>
+        <v>1.342618052295842</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.457940706292833</v>
+        <v>1.35339169667047</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.429117168275618</v>
+        <v>1.80423202424666</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.186629920184567</v>
+        <v>1.456746732372342</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.555325644180691</v>
+        <v>1.354586253866914</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.383861634057793</v>
+        <v>1.357670693201586</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.550745446067175</v>
+        <v>1.33052241175659</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.533864547325695</v>
+        <v>1.619247502311314</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="F149">
-        <v>1.467979173888796</v>
+        <v>1.43564048271723</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.672315306362494</v>
+        <v>1.7241004261888</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>1.492279437327917</v>
+        <v>1.496126218074234</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.607417629486354</v>
+        <v>1.552423714422243</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.577865797681354</v>
+        <v>1.415226460869099</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.421819150057895</v>
+        <v>1.498825265402</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>1.670945606101577</v>
+        <v>1.385251053632543</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.265215961619139</v>
+        <v>1.392617104919281</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.942957459466618</v>
+        <v>1.485691118183131</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.512380711545191</v>
+        <v>1.478034786974975</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.598405495535855</v>
+        <v>1.266345552045684</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.345632406807919</v>
+        <v>1.523211763102435</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.543290936188972</v>
+        <v>1.639002103354126</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.411315795709685</v>
+        <v>1.325620034110219</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1.351735114453287</v>
+        <v>1.475473157128163</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.437459293977468</v>
+        <v>1.541451229478276</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>1.565393586696071</v>
+        <v>1.490211860277698</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.362398293405331</v>
+        <v>1.634717078522658</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.232957140486025</v>
+        <v>1.521171053255735</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.510902912279635</v>
+        <v>1.592865322935946</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.463854405764116</v>
+        <v>1.599452118173291</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.66261799371281</v>
+        <v>1.325093999561706</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.398463229123002</v>
+        <v>1.60249221289242</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.339344164394479</v>
+        <v>1.265515539193983</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.493315588942476</v>
+        <v>1.646247246481636</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.569028759420083</v>
+        <v>1.584262365586354</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.252937364638732</v>
+        <v>1.619170771644235</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.527394333553352</v>
+        <v>1.525902324881119</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.401535138879788</v>
+        <v>1.456851653426045</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.741853335574503</v>
+        <v>1.5444177905045</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.580221239500305</v>
+        <v>1.528350232527496</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.517583795700427</v>
+        <v>1.415321862089933</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.340558631425309</v>
+        <v>1.380616224574936</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.596288570744081</v>
+        <v>1.499378217682419</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.630505666778044</v>
+        <v>1.492982321855727</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.299921072082573</v>
+        <v>1.095837947437138</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.241468943616457</v>
+        <v>1.717665923830892</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.481803553241058</v>
+        <v>1.458672554844717</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.241945676494312</v>
+        <v>1.34515470188071</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.520943580772171</v>
+        <v>1.396638163618396</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.566312706431627</v>
+        <v>1.617803802224322</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.443768832177374</v>
+        <v>1.34713414681101</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.507547829040023</v>
+        <v>1.435692996067838</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.277457964584426</v>
+        <v>1.47745328643632</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.523317363847403</v>
+        <v>1.383712929483086</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.474108583921458</v>
+        <v>1.420845243662041</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.796431646202246</v>
+        <v>1.299293645479852</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.244137427694735</v>
+        <v>1.554585931704315</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.775337548646148</v>
+        <v>1.292247356827984</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.424401020548649</v>
+        <v>1.375470087190321</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.396329064001085</v>
+        <v>1.560576572913609</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.234239249873885</v>
+        <v>1.681241908244126</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.433260689414264</v>
+        <v>1.495642752706997</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.373947051145503</v>
+        <v>1.37847986203669</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.27517469578329</v>
+        <v>1.684608531534654</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.404450307788797</v>
+        <v>1.295465205445843</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.457029824308151</v>
+        <v>1.342383035732571</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.430450594249088</v>
+        <v>1.74179826046989</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.446956533321858</v>
+        <v>1.393817367420823</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.518590627088788</v>
+        <v>1.465887018832575</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.421665664467321</v>
+        <v>1.485755650542808</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.419558977126512</v>
+        <v>1.397232710139364</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.667459121922456</v>
+        <v>1.384403731396062</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.600531885062307</v>
+        <v>1.703804230897542</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.497081437824045</v>
+        <v>1.473939081037568</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.576624099274034</v>
+        <v>1.54706703690198</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.736566836797406</v>
+        <v>1.602362799184619</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.315433342842738</v>
+        <v>1.347534990488769</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.402423252959346</v>
+        <v>1.50503207072517</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.521079590721398</v>
+        <v>1.477707078935901</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.510019585461903</v>
+        <v>1.703168790089777</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.66387003242275</v>
+        <v>1.165406679458873</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.645795285652201</v>
+        <v>1.449528055824928</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.634169788524177</v>
+        <v>1.420569237962905</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.159033382994541</v>
+        <v>1.620240100629358</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.566503647417095</v>
+        <v>1.508593295741865</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.553816972735693</v>
+        <v>1.488693299264625</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.410255052567744</v>
+        <v>1.309882362189021</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.465122133885653</v>
+        <v>1.268146846310557</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.392684411472412</v>
+        <v>1.356737933381778</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.531168797670424</v>
+        <v>1.40070031640346</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.400055291738507</v>
+        <v>1.583564564893955</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.140015326181781</v>
+        <v>1.597489387069171</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1.506957376962714</v>
+        <v>1.370576068575645</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.402235130130154</v>
+        <v>1.670776642855628</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.523644141328092</v>
+        <v>1.948837990966508</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.571589955282504</v>
+        <v>1.39015829749333</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.315941624762973</v>
+        <v>1.675198395442182</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.371478166904034</v>
+        <v>1.610778454982263</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.741437468937228</v>
+        <v>1.418553378959031</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>1.388427454658044</v>
+        <v>1.621938565235185</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.58280029359273</v>
+        <v>1.702297305475352</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1.483892615613918</v>
+        <v>1.296388206319188</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242">
-        <v>1.593900046519023</v>
+        <v>1.531899136445369</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.388187006389623</v>
+        <v>1.367207560445697</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1.381466870708858</v>
+        <v>1.484207791350477</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.497327132028043</v>
+        <v>1.648362098254232</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.659995749299776</v>
+        <v>1.524934597061248</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.366592219589028</v>
+        <v>1.660908881541183</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>1.42754960183354</v>
+        <v>1.769513133470781</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.382629908673108</v>
+        <v>1.534308746442726</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.401795130988433</v>
+        <v>1.192181898886298</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.569585642947816</v>
+        <v>1.407818460412922</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.39670188292596</v>
+        <v>1.375079561419018</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.593242563482911</v>
+        <v>1.40122865198321</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.272477359976472</v>
+        <v>1.615873745764545</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.557965953786236</v>
+        <v>1.599552883964606</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>1.501173063063294</v>
+        <v>1.631894202587269</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.743527461620764</v>
+        <v>1.62221770902884</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/26_localizer.xlsx
+++ b/sequences/26_localizer.xlsx
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.464592643048876</v>
+        <v>1.500373769991388</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.538122686871476</v>
+        <v>1.488310579278984</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.519816147453641</v>
+        <v>1.649497595798153</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.524476870567654</v>
+        <v>1.407179559545453</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.529984047740124</v>
+        <v>1.442599207351623</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.493425324033774</v>
+        <v>1.681449838256015</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.636309073401529</v>
+        <v>1.401625801809566</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.507062463661596</v>
+        <v>1.655223660582481</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.641270079812923</v>
+        <v>1.556484519637918</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.6292775635915</v>
+        <v>1.334271145369777</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.762727501707555</v>
+        <v>1.386224329893997</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.589510550698725</v>
+        <v>1.462431732478892</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.603120134373985</v>
+        <v>1.751158204282368</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1.531558860901615</v>
+        <v>1.348050686948077</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.714503081313047</v>
+        <v>1.509279355974216</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.720296503879704</v>
+        <v>1.444275088321499</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.443676701481237</v>
+        <v>1.620858982020361</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.376313496936246</v>
+        <v>1.663624509377669</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.386167353563847</v>
+        <v>1.645456872718399</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.473987844192261</v>
+        <v>1.551874037091294</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.639559960146952</v>
+        <v>1.385134547208256</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.539111335145603</v>
+        <v>1.617061055934659</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.345688935411072</v>
+        <v>1.407939837465969</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.689980204825144</v>
+        <v>1.430148818752679</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.531399245895171</v>
+        <v>1.419246869587401</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.185480855136527</v>
+        <v>1.373500182521451</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1.394832824919785</v>
+        <v>1.686529545916198</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.569793981362083</v>
+        <v>1.269791469047258</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.559090480785656</v>
+        <v>1.357674252497733</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.473386061468272</v>
+        <v>1.29781975770319</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.384101944398705</v>
+        <v>1.445209164679359</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.315619013160267</v>
+        <v>1.349580780811093</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.508354416246122</v>
+        <v>1.755240699961243</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.483252133245342</v>
+        <v>1.77434316996479</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.082189192712168</v>
+        <v>1.428605400412559</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.397012632849725</v>
+        <v>1.517215479585653</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.721598974328888</v>
+        <v>1.58872786377667</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1.291589014479815</v>
+        <v>1.716886560742906</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.237984558011598</v>
+        <v>1.495902071859599</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1.471605453241158</v>
+        <v>1.324188602959889</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.632397587857508</v>
+        <v>1.202793986335276</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1.489619416290844</v>
+        <v>1.51526523907254</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.44318176925793</v>
+        <v>1.250733598835094</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.764858801144864</v>
+        <v>1.261953030600627</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.666818248771936</v>
+        <v>1.608290748556104</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.284469241043769</v>
+        <v>1.443530373927878</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1.482743466634301</v>
+        <v>1.644228582773068</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.458228193879186</v>
+        <v>1.461399711842998</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.431728923282972</v>
+        <v>1.403841510669871</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.202737660484743</v>
+        <v>1.413301399162115</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.58331766547201</v>
+        <v>1.840295232222264</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.424817677437228</v>
+        <v>1.42371927636599</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.475372375130626</v>
+        <v>1.465500914925215</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.642193259605581</v>
+        <v>1.46586735666217</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.627700299510664</v>
+        <v>1.540084828706046</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.767671709260574</v>
+        <v>1.655283511069536</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1.508628715584146</v>
+        <v>1.587415234525819</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.671181255061063</v>
+        <v>1.416894094526056</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.668075425183049</v>
+        <v>1.322921361212041</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.617981827971879</v>
+        <v>1.438634811020519</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.122379309342849</v>
+        <v>1.498746550516506</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.697023217719489</v>
+        <v>1.740611861842201</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>1.816291925323147</v>
+        <v>1.446510849886425</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.231993776136733</v>
+        <v>1.277121999023595</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.373297573608889</v>
+        <v>1.339763034111283</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.564512672915061</v>
+        <v>1.538441285418607</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.744534914746062</v>
+        <v>1.322892240564872</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.571070792207286</v>
+        <v>1.442792275862159</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>1.549021722538021</v>
+        <v>1.518159601705725</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.283922136288465</v>
+        <v>1.567571725473855</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.422929657139349</v>
+        <v>1.399527774378592</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.535691476208349</v>
+        <v>1.451336221297369</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>1.419312863260634</v>
+        <v>1.754382766139947</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.504168208215171</v>
+        <v>1.212029811681827</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.464292507932303</v>
+        <v>1.420594076370894</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.492637034517527</v>
+        <v>1.590928634703783</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.569113910975974</v>
+        <v>1.486299657680203</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.418428681194439</v>
+        <v>1.896034514245615</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.361276559096027</v>
+        <v>1.612644285611547</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.504366600968746</v>
+        <v>1.481514839205595</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.576944933675627</v>
+        <v>1.483329855093846</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.590934288341358</v>
+        <v>1.387814543486928</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.254517681643382</v>
+        <v>1.730151302526088</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.488356198420693</v>
+        <v>1.553148186674597</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1.317799114488321</v>
+        <v>1.378638772753934</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.523055799939056</v>
+        <v>1.436174514055917</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.468034209279027</v>
+        <v>1.408832911436681</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1.54547649201504</v>
+        <v>1.743133313277817</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.547155908813832</v>
+        <v>1.367048427363323</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.487263614984926</v>
+        <v>1.660115360627813</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.357143109879164</v>
+        <v>1.503167225137045</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.740836590288827</v>
+        <v>1.597534651161916</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.435970743190129</v>
+        <v>1.492857394289324</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.662237474409498</v>
+        <v>1.657731701091988</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.523045098262278</v>
+        <v>1.437883500474419</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.38832033993102</v>
+        <v>1.408691453565618</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.348394916103468</v>
+        <v>1.689505555510673</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>1.43749465037091</v>
+        <v>1.502029813787426</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.598947462311753</v>
+        <v>1.412718312265067</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.460616723279665</v>
+        <v>1.41254753406793</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.204766319311048</v>
+        <v>1.511055460585805</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.763449195340367</v>
+        <v>1.556313941519307</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.511912985254335</v>
+        <v>1.516070370882512</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.601684626470363</v>
+        <v>1.573207487340642</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.604390322431671</v>
+        <v>1.508120645006202</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.711206161370535</v>
+        <v>1.194650731237443</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.564122890371506</v>
+        <v>1.486324990128082</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.722921809771028</v>
+        <v>1.694600203165726</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.424845410622961</v>
+        <v>1.39691411430021</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.536605735945553</v>
+        <v>1.479582475373532</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.574666215622148</v>
+        <v>1.515506486302506</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.676254969382326</v>
+        <v>1.528153050219625</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.497996617866705</v>
+        <v>1.504852710895709</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.592158557102447</v>
+        <v>1.598442544650173</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.845539187238959</v>
+        <v>1.59648275363773</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.575848944394889</v>
+        <v>1.256789181316658</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.691781502667185</v>
+        <v>1.44880228481359</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.534234916327504</v>
+        <v>1.463283768893998</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.609584143399011</v>
+        <v>1.641222199915439</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.445097121484926</v>
+        <v>1.443548411719018</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.34671674540054</v>
+        <v>1.574963809835274</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.150519222709761</v>
+        <v>1.38255058484261</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.263190597297963</v>
+        <v>1.75692666103873</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.454351076223601</v>
+        <v>1.386458991437055</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.777827536892541</v>
+        <v>1.443148809228583</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.474543666650179</v>
+        <v>1.595344523676165</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.480704534950181</v>
+        <v>1.611054471937392</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.538381973045805</v>
+        <v>1.361743804731926</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.459957118748925</v>
+        <v>1.755313322859666</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>1.617251933030799</v>
+        <v>1.481413780244899</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.634826019682828</v>
+        <v>1.603167522729225</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.558897446559096</v>
+        <v>1.635791991472501</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.443074762243339</v>
+        <v>1.454161402632932</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.698569263507705</v>
+        <v>1.290787227606793</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.632319675887903</v>
+        <v>1.589104738502727</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.475810811645289</v>
+        <v>1.598976811417678</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.564219660288299</v>
+        <v>1.576885422565778</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.586333887272566</v>
+        <v>1.616780077232923</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.494731832688547</v>
+        <v>1.586165356822174</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.342618052295842</v>
+        <v>1.254590616048693</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.35339169667047</v>
+        <v>1.302776986136731</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.80423202424666</v>
+        <v>1.691625810492443</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>1.456746732372342</v>
+        <v>1.419878125672405</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.354586253866914</v>
+        <v>1.326422045623304</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.357670693201586</v>
+        <v>1.526141888217128</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.33052241175659</v>
+        <v>1.660524125624143</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.619247502311314</v>
+        <v>1.327639351593124</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.43564048271723</v>
+        <v>1.545376013796624</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.7241004261888</v>
+        <v>1.608369760103642</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>1.496126218074234</v>
+        <v>1.258767156671027</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.552423714422243</v>
+        <v>1.409254091543563</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.415226460869099</v>
+        <v>1.413604879910098</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.498825265402</v>
+        <v>1.666917459083664</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.385251053632543</v>
+        <v>1.326127883243873</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.392617104919281</v>
+        <v>1.724574159803236</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.485691118183131</v>
+        <v>1.629916963603668</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.478034786974975</v>
+        <v>1.326665006989584</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.266345552045684</v>
+        <v>1.547612106041115</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.523211763102435</v>
+        <v>1.678935184016437</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.639002103354126</v>
+        <v>1.349871728123477</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.325620034110219</v>
+        <v>1.584178040377435</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.475473157128163</v>
+        <v>1.362644713633767</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.541451229478276</v>
+        <v>1.532710706120585</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1.490211860277698</v>
+        <v>1.547510424727882</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.634717078522658</v>
+        <v>1.590999135399159</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.521171053255735</v>
+        <v>1.225397526831821</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.592865322935946</v>
+        <v>1.299849481274138</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.599452118173291</v>
+        <v>1.716770568682257</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.325093999561706</v>
+        <v>1.722409461330641</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.60249221289242</v>
+        <v>1.428658523625331</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.265515539193983</v>
+        <v>1.411208341922121</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.646247246481636</v>
+        <v>1.583187310971056</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.584262365586354</v>
+        <v>1.650712076362481</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.619170771644235</v>
+        <v>1.551943918367128</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.525902324881119</v>
+        <v>1.49768231991771</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.456851653426045</v>
+        <v>1.476683359156426</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.5444177905045</v>
+        <v>1.436307057551329</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.528350232527496</v>
+        <v>1.572175723152568</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.415321862089933</v>
+        <v>1.529331666723323</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.380616224574936</v>
+        <v>1.666208645507861</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.499378217682419</v>
+        <v>1.532345553886897</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.492982321855727</v>
+        <v>1.382917220447795</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.095837947437138</v>
+        <v>1.631128669125437</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.717665923830892</v>
+        <v>1.531911807038834</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186">
-        <v>1.458672554844717</v>
+        <v>1.347417657080332</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.34515470188071</v>
+        <v>1.331028026300909</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.396638163618396</v>
+        <v>1.604255088017062</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.617803802224322</v>
+        <v>1.78376670029996</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.34713414681101</v>
+        <v>1.392418847868025</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.435692996067838</v>
+        <v>1.684758640585465</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.47745328643632</v>
+        <v>1.706166166294609</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.383712929483086</v>
+        <v>1.181365250240437</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.420845243662041</v>
+        <v>1.470091219499531</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.299293645479852</v>
+        <v>1.468446020462229</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.554585931704315</v>
+        <v>1.293128243506763</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.292247356827984</v>
+        <v>1.654182212699598</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.375470087190321</v>
+        <v>1.460741689982323</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.560576572913609</v>
+        <v>1.50225813186404</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.681241908244126</v>
+        <v>1.285955581536528</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.495642752706997</v>
+        <v>1.263293652143624</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.37847986203669</v>
+        <v>1.766126499361429</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.684608531534654</v>
+        <v>1.645879538240063</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.295465205445843</v>
+        <v>1.6512341197191</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.342383035732571</v>
+        <v>1.881468664192338</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.74179826046989</v>
+        <v>1.370939336947832</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.393817367420823</v>
+        <v>1.378966701454404</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.465887018832575</v>
+        <v>1.536570896417096</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.485755650542808</v>
+        <v>1.494457954031222</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
-        <v>1.397232710139364</v>
+        <v>1.50620501361427</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.384403731396062</v>
+        <v>1.557350052863364</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.703804230897542</v>
+        <v>1.570930678351824</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.473939081037568</v>
+        <v>1.572000114228953</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.54706703690198</v>
+        <v>1.312247853444102</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>1.602362799184619</v>
+        <v>1.719990611187988</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.347534990488769</v>
+        <v>1.681821627865655</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.50503207072517</v>
+        <v>1.795607434680998</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.477707078935901</v>
+        <v>1.486407355694947</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.703168790089777</v>
+        <v>1.656655847353125</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.165406679458873</v>
+        <v>1.255020831485266</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.449528055824928</v>
+        <v>1.580997476859553</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.420569237962905</v>
+        <v>1.172392150144868</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.620240100629358</v>
+        <v>1.683602661755589</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.508593295741865</v>
+        <v>1.575120771444678</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.488693299264625</v>
+        <v>1.567170178709753</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.309882362189021</v>
+        <v>1.423008630902126</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.268146846310557</v>
+        <v>1.694128626930768</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.356737933381778</v>
+        <v>1.334342593620502</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.40070031640346</v>
+        <v>1.788382862086708</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.583564564893955</v>
+        <v>1.419422915600228</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.597489387069171</v>
+        <v>1.58503987499333</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1.370576068575645</v>
+        <v>1.469400978061962</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.670776642855628</v>
+        <v>1.435939819719388</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.948837990966508</v>
+        <v>1.548695235744544</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.39015829749333</v>
+        <v>1.616852668302496</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.675198395442182</v>
+        <v>1.442104707050452</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.610778454982263</v>
+        <v>1.884925265047962</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.418553378959031</v>
+        <v>1.31752647180632</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.621938565235185</v>
+        <v>1.281819547680255</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.702297305475352</v>
+        <v>1.549771162158785</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.296388206319188</v>
+        <v>1.442709317061112</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>1.531899136445369</v>
+        <v>1.530845779452049</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.367207560445697</v>
+        <v>1.535835154732876</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.484207791350477</v>
+        <v>1.58042275380208</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.648362098254232</v>
+        <v>1.648690297881437</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.524934597061248</v>
+        <v>1.451733689464884</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.660908881541183</v>
+        <v>1.604294033722985</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.769513133470781</v>
+        <v>1.351835256585197</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.534308746442726</v>
+        <v>1.346456946523657</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.192181898886298</v>
+        <v>1.348224908732447</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.407818460412922</v>
+        <v>1.436705500202352</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.375079561419018</v>
+        <v>1.41247188571783</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.40122865198321</v>
+        <v>1.465238749261911</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.615873745764545</v>
+        <v>1.611496701763119</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1.599552883964606</v>
+        <v>1.237619621373152</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.631894202587269</v>
+        <v>1.345334981219105</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.62221770902884</v>
+        <v>1.417379514945805</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/26_localizer.xlsx
+++ b/sequences/26_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>house</t>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
   </si>
   <si>
     <t>flower/flower040.jpg</t>
   </si>
   <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
   </si>
   <si>
     <t>flower/flower045.jpg</t>
   </si>
   <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
     <t>dog/dog037.jpg</t>
   </si>
   <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
+    <t>dog/dog046.jpg</t>
   </si>
   <si>
     <t>dog/dog034.jpg</t>
   </si>
   <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
   </si>
   <si>
     <t>face/face053.jpg</t>
   </si>
   <si>
-    <t>flower/flower049.jpg</t>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
   </si>
   <si>
     <t>house/house061.jpg</t>
   </si>
   <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
     <t>face/face059.jpg</t>
   </si>
   <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
     <t>dog/dog055.jpg</t>
   </si>
   <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
   </si>
   <si>
     <t>house/house053.jpg</t>
   </si>
   <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
   </si>
   <si>
     <t>flower/flower050.jpg</t>
   </si>
   <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
     <t>face/face056.jpg</t>
   </si>
   <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
   </si>
   <si>
     <t>dog/dog066.jpg</t>
   </si>
   <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
     <t>face/face078.jpg</t>
   </si>
   <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
   </si>
   <si>
     <t>dog/dog075.jpg</t>
   </si>
   <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
+    <t>flower/flower067.jpg</t>
   </si>
   <si>
     <t>face/face069.jpg</t>
   </si>
   <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
+    <t>flower/flower073.jpg</t>
   </si>
   <si>
     <t>flower/flower077.jpg</t>
   </si>
   <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
   </si>
   <si>
     <t>house/house080.jpg</t>
   </si>
   <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
   </si>
   <si>
     <t>face/face085.jpg</t>
   </si>
   <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
   </si>
   <si>
     <t>flower/flower085.jpg</t>
   </si>
   <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
     <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.500373769991388</v>
+        <v>1.64375617228918</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.488310579278984</v>
+        <v>1.536273575591372</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.649497595798153</v>
+        <v>1.498897153587718</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.407179559545453</v>
+        <v>1.319160235303761</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.442599207351623</v>
+        <v>1.566383448087242</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.681449838256015</v>
+        <v>1.382273787252416</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.401625801809566</v>
+        <v>1.430154987000736</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.655223660582481</v>
+        <v>1.836186000737237</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.556484519637918</v>
+        <v>1.422893164409622</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.334271145369777</v>
+        <v>1.368267922946862</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.386224329893997</v>
+        <v>1.370900292945922</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.462431732478892</v>
+        <v>1.54034188642938</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.751158204282368</v>
+        <v>1.71560942738002</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.348050686948077</v>
+        <v>1.802010329669987</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.509279355974216</v>
+        <v>1.3995738300915</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1.444275088321499</v>
+        <v>1.475960148000859</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.620858982020361</v>
+        <v>1.710791983141381</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.663624509377669</v>
+        <v>1.314785282571381</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.645456872718399</v>
+        <v>1.419565035620797</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.551874037091294</v>
+        <v>1.760245074117492</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.385134547208256</v>
+        <v>1.537693198490916</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.617061055934659</v>
+        <v>1.28227777085329</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.407939837465969</v>
+        <v>1.480857622435933</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.430148818752679</v>
+        <v>1.660975669143308</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.419246869587401</v>
+        <v>1.656711063160954</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.373500182521451</v>
+        <v>1.638833094636952</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.686529545916198</v>
+        <v>1.572553718090177</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.269791469047258</v>
+        <v>1.495037075606579</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.357674252497733</v>
+        <v>1.669882906390789</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1.29781975770319</v>
+        <v>1.433740096016112</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.445209164679359</v>
+        <v>1.398447051293661</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.349580780811093</v>
+        <v>1.44952332411718</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.755240699961243</v>
+        <v>1.540958438522392</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.77434316996479</v>
+        <v>1.430191399877815</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1.428605400412559</v>
+        <v>1.356604726600711</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.517215479585653</v>
+        <v>1.452853299111618</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.58872786377667</v>
+        <v>1.363722365613449</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.716886560742906</v>
+        <v>1.563120913727195</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.495902071859599</v>
+        <v>1.452017827616268</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1.324188602959889</v>
+        <v>1.521584474175454</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.202793986335276</v>
+        <v>1.512944813440706</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.51526523907254</v>
+        <v>1.600116855712099</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.250733598835094</v>
+        <v>1.480351931641902</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.261953030600627</v>
+        <v>1.398212332928382</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.608290748556104</v>
+        <v>1.38347324282644</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.443530373927878</v>
+        <v>1.722129388785096</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.644228582773068</v>
+        <v>1.532299882881703</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.461399711842998</v>
+        <v>1.473809365540875</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.403841510669871</v>
+        <v>1.409088191245937</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.413301399162115</v>
+        <v>1.939520753384053</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.840295232222264</v>
+        <v>1.504096460198167</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.42371927636599</v>
+        <v>1.419056664139531</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.465500914925215</v>
+        <v>1.389294167379935</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.46586735666217</v>
+        <v>1.430921021995317</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.540084828706046</v>
+        <v>1.384042006272664</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>1.655283511069536</v>
+        <v>1.421289600966425</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.587415234525819</v>
+        <v>1.357132373638963</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.416894094526056</v>
+        <v>1.568018566226886</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.322921361212041</v>
+        <v>1.36326772483113</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.438634811020519</v>
+        <v>1.614534478321695</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.498746550516506</v>
+        <v>1.338717570629015</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.740611861842201</v>
+        <v>1.547629044125141</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.446510849886425</v>
+        <v>1.366389612340694</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.277121999023595</v>
+        <v>1.531716131242113</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.339763034111283</v>
+        <v>1.704559489943869</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.538441285418607</v>
+        <v>1.475970185369059</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.322892240564872</v>
+        <v>1.674146400400825</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.442792275862159</v>
+        <v>1.522574747262013</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1.518159601705725</v>
+        <v>1.673209071501884</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.567571725473855</v>
+        <v>1.527254330917814</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.399527774378592</v>
+        <v>1.727081162901058</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.451336221297369</v>
+        <v>1.445423239794627</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1.754382766139947</v>
+        <v>1.289635115078795</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.212029811681827</v>
+        <v>1.184772482682855</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.420594076370894</v>
+        <v>1.20190247628266</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.590928634703783</v>
+        <v>1.32134042527221</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.486299657680203</v>
+        <v>1.274962857640533</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.896034514245615</v>
+        <v>1.780136169263548</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.612644285611547</v>
+        <v>1.437385423757526</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.481514839205595</v>
+        <v>1.485408079744518</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.483329855093846</v>
+        <v>1.36128329976354</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.387814543486928</v>
+        <v>1.251689071203225</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.730151302526088</v>
+        <v>1.814469972850812</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.553148186674597</v>
+        <v>1.460139836099294</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.378638772753934</v>
+        <v>1.541461757359185</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.436174514055917</v>
+        <v>1.584591741125939</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.408832911436681</v>
+        <v>1.463501559597191</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.743133313277817</v>
+        <v>1.570323164603741</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.367048427363323</v>
+        <v>1.453803006083498</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.660115360627813</v>
+        <v>1.306686579894637</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.503167225137045</v>
+        <v>1.498320872471888</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.597534651161916</v>
+        <v>1.674142706690904</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.492857394289324</v>
+        <v>1.34017952733007</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.657731701091988</v>
+        <v>1.385673681209879</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.437883500474419</v>
+        <v>1.493148246313447</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.408691453565618</v>
+        <v>1.293646969045379</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.689505555510673</v>
+        <v>1.573777586178074</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.502029813787426</v>
+        <v>1.491357784196621</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.412718312265067</v>
+        <v>1.494728310891144</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.41254753406793</v>
+        <v>1.211268191866509</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.511055460585805</v>
+        <v>1.436111691322995</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1.556313941519307</v>
+        <v>1.488919946100177</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.516070370882512</v>
+        <v>1.561871297105869</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.573207487340642</v>
+        <v>1.62241139507718</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.508120645006202</v>
+        <v>1.203821622849773</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.194650731237443</v>
+        <v>1.379040056851004</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.486324990128082</v>
+        <v>1.68646888113243</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.694600203165726</v>
+        <v>1.303977980259283</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.39691411430021</v>
+        <v>1.525172887329671</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.479582475373532</v>
+        <v>1.616694360684136</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.515506486302506</v>
+        <v>1.586331366082784</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.528153050219625</v>
+        <v>1.580514109820062</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.504852710895709</v>
+        <v>1.57762112677073</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.598442544650173</v>
+        <v>1.283516050483941</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.59648275363773</v>
+        <v>1.47582508993543</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.256789181316658</v>
+        <v>1.136236502328027</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>1.44880228481359</v>
+        <v>1.548028040520705</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.463283768893998</v>
+        <v>1.577883133289854</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.641222199915439</v>
+        <v>1.179583720136007</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.443548411719018</v>
+        <v>1.312898041956859</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1.574963809835274</v>
+        <v>1.769719889505435</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.38255058484261</v>
+        <v>1.453304352880993</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.75692666103873</v>
+        <v>1.609348418231493</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.386458991437055</v>
+        <v>1.648495240799847</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.443148809228583</v>
+        <v>1.495409640906757</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.595344523676165</v>
+        <v>1.318389706629366</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.611054471937392</v>
+        <v>1.627983732151384</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.361743804731926</v>
+        <v>1.616963277494582</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.755313322859666</v>
+        <v>1.496600310261606</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.481413780244899</v>
+        <v>1.650640017752132</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>1.603167522729225</v>
+        <v>1.693462274713616</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.635791991472501</v>
+        <v>1.442438805372144</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.454161402632932</v>
+        <v>1.488826958472687</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.290787227606793</v>
+        <v>1.501905390228196</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.589104738502727</v>
+        <v>1.508951259616013</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.598976811417678</v>
+        <v>1.722789030095694</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.576885422565778</v>
+        <v>1.504697167808396</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.616780077232923</v>
+        <v>1.621431668834634</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.586165356822174</v>
+        <v>1.47066538754799</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.254590616048693</v>
+        <v>1.383926990541655</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.302776986136731</v>
+        <v>1.322846977585365</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.691625810492443</v>
+        <v>1.647963180873358</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1.419878125672405</v>
+        <v>1.60282464532261</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.326422045623304</v>
+        <v>1.399494141916997</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.526141888217128</v>
+        <v>1.772324613840277</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.660524125624143</v>
+        <v>1.661934361539509</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.327639351593124</v>
+        <v>1.47390699414729</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.545376013796624</v>
+        <v>1.630483324558871</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.608369760103642</v>
+        <v>1.370006563057423</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>1.258767156671027</v>
+        <v>1.705520155732924</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.409254091543563</v>
+        <v>1.413250391686875</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.413604879910098</v>
+        <v>1.607646385118695</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.666917459083664</v>
+        <v>1.602999675540215</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.326127883243873</v>
+        <v>1.623992710198239</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>1.724574159803236</v>
+        <v>1.383258406071478</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.629916963603668</v>
+        <v>1.611975652568013</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.326665006989584</v>
+        <v>1.353683597898157</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.547612106041115</v>
+        <v>1.389889070625082</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.678935184016437</v>
+        <v>1.329705552792297</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.349871728123477</v>
+        <v>1.317209297634876</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.584178040377435</v>
+        <v>1.405999505062216</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.362644713633767</v>
+        <v>1.6334983458954</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>1.532710706120585</v>
+        <v>1.427111609772889</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.547510424727882</v>
+        <v>1.250588345904067</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.590999135399159</v>
+        <v>1.507199188167413</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.225397526831821</v>
+        <v>1.681343410330099</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.299849481274138</v>
+        <v>1.353983637601593</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.716770568682257</v>
+        <v>1.38130792727411</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.722409461330641</v>
+        <v>1.610951508690062</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>1.428658523625331</v>
+        <v>1.66533060376249</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.411208341922121</v>
+        <v>1.387533429983202</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.583187310971056</v>
+        <v>1.499317367392866</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.650712076362481</v>
+        <v>1.302827700049417</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.551943918367128</v>
+        <v>1.77294143235625</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.49768231991771</v>
+        <v>1.642677363888542</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.476683359156426</v>
+        <v>1.630937264607919</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.436307057551329</v>
+        <v>1.403803081979251</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.572175723152568</v>
+        <v>1.353298910625815</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.529331666723323</v>
+        <v>1.39103546163871</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.666208645507861</v>
+        <v>1.677222655029408</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.532345553886897</v>
+        <v>1.617136053359751</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.382917220447795</v>
+        <v>1.418786857720659</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.631128669125437</v>
+        <v>1.438480144043912</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.531911807038834</v>
+        <v>1.606249718522284</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>1.347417657080332</v>
+        <v>1.180130931042827</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.331028026300909</v>
+        <v>1.861447773281425</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.604255088017062</v>
+        <v>1.431469214934779</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.78376670029996</v>
+        <v>1.403685929054812</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.392418847868025</v>
+        <v>1.613924905175594</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.684758640585465</v>
+        <v>1.696210000271133</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.706166166294609</v>
+        <v>1.570178801189977</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.181365250240437</v>
+        <v>1.357371548461247</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.470091219499531</v>
+        <v>1.596855219211054</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.468446020462229</v>
+        <v>1.375738930065292</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.293128243506763</v>
+        <v>1.531091627199357</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.654182212699598</v>
+        <v>1.47333284141117</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.460741689982323</v>
+        <v>1.301556788860344</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.50225813186404</v>
+        <v>1.60874426358815</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.285955581536528</v>
+        <v>1.517736075926719</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.263293652143624</v>
+        <v>1.510936774441471</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.766126499361429</v>
+        <v>1.345051743969859</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.645879538240063</v>
+        <v>1.521521296672987</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.6512341197191</v>
+        <v>1.542815409842426</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.881468664192338</v>
+        <v>1.292789525153302</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>1.370939336947832</v>
+        <v>1.79083625506397</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.378966701454404</v>
+        <v>1.578900016902922</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.536570896417096</v>
+        <v>1.366175671223903</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>1.494457954031222</v>
+        <v>1.525168710128733</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1.50620501361427</v>
+        <v>1.627817003658206</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.557350052863364</v>
+        <v>1.602309412957122</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.570930678351824</v>
+        <v>1.566725337108252</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.572000114228953</v>
+        <v>1.517581576968702</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.312247853444102</v>
+        <v>1.686524523956444</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="F215">
-        <v>1.719990611187988</v>
+        <v>1.623873081560491</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.681821627865655</v>
+        <v>1.572295803597122</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.795607434680998</v>
+        <v>1.522908605720542</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.486407355694947</v>
+        <v>1.53653433421045</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.656655847353125</v>
+        <v>1.514468673201689</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.255020831485266</v>
+        <v>1.70175945918438</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.580997476859553</v>
+        <v>1.609647457207796</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.172392150144868</v>
+        <v>1.233641615906883</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.683602661755589</v>
+        <v>1.608600437938723</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.575120771444678</v>
+        <v>1.33179617816949</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="F225">
-        <v>1.567170178709753</v>
+        <v>1.392213163519949</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.423008630902126</v>
+        <v>1.446376433779185</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.694128626930768</v>
+        <v>1.589376694252345</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.334342593620502</v>
+        <v>1.816426323186144</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.788382862086708</v>
+        <v>1.136449893145616</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.419422915600228</v>
+        <v>1.389639088471504</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.58503987499333</v>
+        <v>1.583574851958692</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.469400978061962</v>
+        <v>1.59588529691117</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.435939819719388</v>
+        <v>1.367770891418409</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.548695235744544</v>
+        <v>1.414065771499545</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.616852668302496</v>
+        <v>1.238750134934705</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.442104707050452</v>
+        <v>1.309903026577247</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.884925265047962</v>
+        <v>1.426361482921312</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.31752647180632</v>
+        <v>1.53976889774561</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.281819547680255</v>
+        <v>1.513356822663432</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.549771162158785</v>
+        <v>1.652431851172308</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.442709317061112</v>
+        <v>1.663531386384393</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.530845779452049</v>
+        <v>1.676371325933878</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.535835154732876</v>
+        <v>1.327765074305424</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>1.58042275380208</v>
+        <v>1.506930429664183</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.648690297881437</v>
+        <v>1.378897258083819</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.451733689464884</v>
+        <v>1.355209989620033</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.604294033722985</v>
+        <v>1.409183750319063</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.351835256585197</v>
+        <v>1.426822082626262</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.346456946523657</v>
+        <v>1.554916861807328</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.348224908732447</v>
+        <v>1.464558074133619</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.436705500202352</v>
+        <v>1.60281103894654</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.41247188571783</v>
+        <v>1.560255239412789</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.465238749261911</v>
+        <v>1.632339060245689</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.611496701763119</v>
+        <v>1.576247784242012</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.237619621373152</v>
+        <v>1.465159836985927</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.345334981219105</v>
+        <v>1.44092142696576</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.417379514945805</v>
+        <v>1.615751617335109</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/26_localizer.xlsx
+++ b/sequences/26_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
   </si>
   <si>
     <t>face/face036.jpg</t>
   </si>
   <si>
-    <t>dog/dog041.jpg</t>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
   </si>
   <si>
     <t>dog/dog035.jpg</t>
   </si>
   <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
     <t>dog/dog046.jpg</t>
   </si>
   <si>
-    <t>dog/dog034.jpg</t>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
   </si>
   <si>
     <t>flower/flower061.jpg</t>
   </si>
   <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
     <t>flower/flower065.jpg</t>
   </si>
   <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
     <t>dog/dog058.jpg</t>
   </si>
   <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
   </si>
   <si>
     <t>flower/flower060.jpg</t>
   </si>
   <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
     <t>face/face048.jpg</t>
   </si>
   <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
     <t>face/face049.jpg</t>
   </si>
   <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
   </si>
   <si>
     <t>flower/flower078.jpg</t>
   </si>
   <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
     <t>house/house079.jpg</t>
   </si>
   <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
   </si>
   <si>
     <t>dog/dog067.jpg</t>
   </si>
   <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
   </si>
   <si>
     <t>house/house068.jpg</t>
   </si>
   <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
     <t>flower/flower066.jpg</t>
   </si>
   <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
     <t>house/house075.jpg</t>
   </si>
   <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
     <t>flower/flower080.jpg</t>
   </si>
   <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
   </si>
   <si>
     <t>dog/dog087.jpg</t>
   </si>
   <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
     <t>house/house083.jpg</t>
   </si>
   <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
     <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.64375617228918</v>
+        <v>1.591651308030899</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.536273575591372</v>
+        <v>1.388476233248062</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.498897153587718</v>
+        <v>1.379259192843689</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.319160235303761</v>
+        <v>1.556450598975899</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.566383448087242</v>
+        <v>1.680548103929152</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.382273787252416</v>
+        <v>1.470671727536056</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.430154987000736</v>
+        <v>1.190762258525246</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.836186000737237</v>
+        <v>1.401159638662124</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.422893164409622</v>
+        <v>1.377101703126054</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.368267922946862</v>
+        <v>1.392332871101805</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.370900292945922</v>
+        <v>1.361852724443433</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.54034188642938</v>
+        <v>1.429148362287207</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.71560942738002</v>
+        <v>1.603903208556306</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.802010329669987</v>
+        <v>1.517933159715287</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.3995738300915</v>
+        <v>1.371539480163145</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1.475960148000859</v>
+        <v>1.512931497913036</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.710791983141381</v>
+        <v>1.362643243442869</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.314785282571381</v>
+        <v>1.501151600324478</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.419565035620797</v>
+        <v>1.555535084173169</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.760245074117492</v>
+        <v>1.207753886646434</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.537693198490916</v>
+        <v>1.750689543667583</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.28227777085329</v>
+        <v>1.62995579983722</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.480857622435933</v>
+        <v>1.606348443364441</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.660975669143308</v>
+        <v>1.344541346132489</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.656711063160954</v>
+        <v>1.44909669029162</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.638833094636952</v>
+        <v>1.400788753641609</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.572553718090177</v>
+        <v>1.258834301690546</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.495037075606579</v>
+        <v>1.513198183012064</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.669882906390789</v>
+        <v>1.738404696066525</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1.433740096016112</v>
+        <v>1.603921418267211</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.398447051293661</v>
+        <v>1.814311476194541</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.44952332411718</v>
+        <v>1.534669294632615</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.540958438522392</v>
+        <v>1.674577925747845</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.430191399877815</v>
+        <v>1.481726084396048</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.356604726600711</v>
+        <v>1.436371463039974</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.452853299111618</v>
+        <v>1.339224092346824</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.363722365613449</v>
+        <v>1.625707712544234</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1.563120913727195</v>
+        <v>1.228247479595294</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.452017827616268</v>
+        <v>1.448731064376467</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.521584474175454</v>
+        <v>1.525704219456489</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.512944813440706</v>
+        <v>1.53318382498129</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.600116855712099</v>
+        <v>1.421930636458516</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.480351931641902</v>
+        <v>1.323674838077066</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.398212332928382</v>
+        <v>1.561144487917416</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.38347324282644</v>
+        <v>1.556069450792696</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.722129388785096</v>
+        <v>1.370393452144983</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.532299882881703</v>
+        <v>1.71231469544001</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.473809365540875</v>
+        <v>1.500494126473585</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.409088191245937</v>
+        <v>1.284457737742958</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.939520753384053</v>
+        <v>1.609881502500613</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.504096460198167</v>
+        <v>1.412192770705535</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.419056664139531</v>
+        <v>1.44310180250518</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.389294167379935</v>
+        <v>1.753183091166558</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.430921021995317</v>
+        <v>1.401301935906882</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.384042006272664</v>
+        <v>1.322986043720027</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>1.421289600966425</v>
+        <v>1.309486273155311</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.357132373638963</v>
+        <v>1.56229338044765</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.568018566226886</v>
+        <v>1.579563419251528</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.36326772483113</v>
+        <v>1.36388872054113</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.614534478321695</v>
+        <v>1.588605448239909</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.338717570629015</v>
+        <v>1.345486465523253</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.547629044125141</v>
+        <v>1.305047756033789</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.366389612340694</v>
+        <v>1.538479948580563</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.531716131242113</v>
+        <v>1.489878578389899</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.704559489943869</v>
+        <v>1.674003724405775</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.475970185369059</v>
+        <v>1.155850867590982</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.674146400400825</v>
+        <v>1.641827060579197</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.522574747262013</v>
+        <v>1.564102994888549</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.673209071501884</v>
+        <v>1.564533711345766</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.527254330917814</v>
+        <v>1.540986829708461</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.727081162901058</v>
+        <v>1.245082468921277</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.445423239794627</v>
+        <v>1.905521984642086</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.289635115078795</v>
+        <v>1.509139884773614</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.184772482682855</v>
+        <v>1.339349644676784</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.20190247628266</v>
+        <v>1.37072840663954</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.32134042527221</v>
+        <v>1.419556263254203</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.274962857640533</v>
+        <v>1.285827716125442</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.780136169263548</v>
+        <v>1.41739618172735</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.437385423757526</v>
+        <v>1.550749543151853</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.485408079744518</v>
+        <v>1.233606285573861</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.36128329976354</v>
+        <v>1.404567760655038</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.251689071203225</v>
+        <v>1.331667205593767</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.814469972850812</v>
+        <v>1.57977686365728</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.460139836099294</v>
+        <v>1.427071974601815</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.541461757359185</v>
+        <v>1.600303656681487</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.584591741125939</v>
+        <v>1.571258417424941</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.463501559597191</v>
+        <v>1.702091643904069</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.570323164603741</v>
+        <v>1.464800978913766</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.453803006083498</v>
+        <v>1.565649120938402</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.306686579894637</v>
+        <v>1.312196505002462</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.498320872471888</v>
+        <v>1.496481964801175</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.674142706690904</v>
+        <v>1.590474875150246</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.34017952733007</v>
+        <v>1.360476970245885</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.385673681209879</v>
+        <v>1.46459895993292</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.493148246313447</v>
+        <v>1.320917785119139</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.293646969045379</v>
+        <v>1.782665617669794</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.573777586178074</v>
+        <v>1.384333996798203</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.491357784196621</v>
+        <v>1.426465325646786</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.494728310891144</v>
+        <v>1.477122981539443</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.211268191866509</v>
+        <v>1.258455407828155</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.436111691322995</v>
+        <v>1.664718889578697</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1.488919946100177</v>
+        <v>1.628613615537869</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.561871297105869</v>
+        <v>1.657671957307433</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.62241139507718</v>
+        <v>1.504879940306888</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.203821622849773</v>
+        <v>1.33560331853139</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.379040056851004</v>
+        <v>1.396788728656975</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.68646888113243</v>
+        <v>1.58018457349447</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.303977980259283</v>
+        <v>1.704635559723547</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.525172887329671</v>
+        <v>1.37115272142088</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.616694360684136</v>
+        <v>1.415322837353138</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.586331366082784</v>
+        <v>1.454802565649674</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1.580514109820062</v>
+        <v>1.39966766820604</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.57762112677073</v>
+        <v>1.666676211645943</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.283516050483941</v>
+        <v>1.680288881039212</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.47582508993543</v>
+        <v>1.492272276493709</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.136236502328027</v>
+        <v>1.346806906233377</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.548028040520705</v>
+        <v>1.232484226570062</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.577883133289854</v>
+        <v>1.430904303253241</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.179583720136007</v>
+        <v>1.437218147099346</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.312898041956859</v>
+        <v>1.650939324748527</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.769719889505435</v>
+        <v>1.369744092413525</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F123">
-        <v>1.453304352880993</v>
+        <v>1.309888555396362</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.609348418231493</v>
+        <v>1.559269887949841</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.648495240799847</v>
+        <v>1.699383760176723</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.495409640906757</v>
+        <v>1.656761829165464</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.318389706629366</v>
+        <v>1.567235642044893</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.627983732151384</v>
+        <v>1.432362350065087</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.616963277494582</v>
+        <v>1.700556971082367</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.496600310261606</v>
+        <v>1.368611813595169</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.650640017752132</v>
+        <v>1.472380784419873</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.693462274713616</v>
+        <v>1.570080377612651</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.442438805372144</v>
+        <v>1.307968931523199</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.488826958472687</v>
+        <v>1.5150049987147</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.501905390228196</v>
+        <v>1.513585807328585</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.508951259616013</v>
+        <v>1.48908299346431</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.722789030095694</v>
+        <v>1.336479686299549</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.504697167808396</v>
+        <v>1.459633865947828</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>1.621431668834634</v>
+        <v>1.654287661302107</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.47066538754799</v>
+        <v>1.551200713040946</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.383926990541655</v>
+        <v>1.467920947600552</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.322846977585365</v>
+        <v>1.834391885177124</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.647963180873358</v>
+        <v>1.673213095504786</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.60282464532261</v>
+        <v>1.410818547943991</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.399494141916997</v>
+        <v>1.582730031371474</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.772324613840277</v>
+        <v>1.452291937483967</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.661934361539509</v>
+        <v>1.725267385978466</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.47390699414729</v>
+        <v>1.40820286307491</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.630483324558871</v>
+        <v>1.854017730653914</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150">
-        <v>1.370006563057423</v>
+        <v>1.515545665579956</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.705520155732924</v>
+        <v>1.719989133780473</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.413250391686875</v>
+        <v>1.51034722629298</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.607646385118695</v>
+        <v>1.63689966133783</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.602999675540215</v>
+        <v>1.431094250305974</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.623992710198239</v>
+        <v>1.649557738281552</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1.383258406071478</v>
+        <v>1.570426698201656</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.611975652568013</v>
+        <v>1.612164786854241</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.353683597898157</v>
+        <v>1.595177249455463</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.389889070625082</v>
+        <v>1.554491160891315</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.329705552792297</v>
+        <v>1.584377101683233</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.317209297634876</v>
+        <v>1.459982683804297</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.405999505062216</v>
+        <v>1.647957692259227</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.6334983458954</v>
+        <v>1.525650753153637</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>1.427111609772889</v>
+        <v>1.515017661637201</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.250588345904067</v>
+        <v>1.667153052107335</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.507199188167413</v>
+        <v>1.507290864466431</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.681343410330099</v>
+        <v>1.579682118304892</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.353983637601593</v>
+        <v>1.586985424901217</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.38130792727411</v>
+        <v>1.528199832212801</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.610951508690062</v>
+        <v>1.487469346328373</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="F171">
-        <v>1.66533060376249</v>
+        <v>1.602676494743381</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.387533429983202</v>
+        <v>1.492689312230525</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.499317367392866</v>
+        <v>1.382748535665268</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.302827700049417</v>
+        <v>1.404860719218654</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.77294143235625</v>
+        <v>1.793649847107654</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.642677363888542</v>
+        <v>1.318699940422728</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.630937264607919</v>
+        <v>1.462280211378704</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.403803081979251</v>
+        <v>1.26975882950947</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.353298910625815</v>
+        <v>1.667942555790124</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.39103546163871</v>
+        <v>1.389459390434272</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.677222655029408</v>
+        <v>1.439371081057549</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="F182">
-        <v>1.617136053359751</v>
+        <v>1.141463693899198</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.418786857720659</v>
+        <v>1.829587002188116</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.438480144043912</v>
+        <v>1.486128324020593</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.606249718522284</v>
+        <v>1.359644848431582</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.180130931042827</v>
+        <v>1.653641563066728</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.861447773281425</v>
+        <v>1.418237461277028</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.431469214934779</v>
+        <v>1.605900666579057</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.403685929054812</v>
+        <v>1.649799650780003</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.613924905175594</v>
+        <v>1.622962850919775</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.696210000271133</v>
+        <v>1.54399135057168</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.570178801189977</v>
+        <v>1.60182414376692</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.357371548461247</v>
+        <v>1.548988119030358</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.596855219211054</v>
+        <v>1.696604414352706</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.375738930065292</v>
+        <v>1.353597937864491</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.531091627199357</v>
+        <v>1.590375902075439</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.47333284141117</v>
+        <v>1.579526493330644</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.301556788860344</v>
+        <v>1.387399369359122</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.60874426358815</v>
+        <v>1.731452090720647</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.517736075926719</v>
+        <v>1.499423700101025</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.510936774441471</v>
+        <v>1.650653148268673</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.345051743969859</v>
+        <v>1.707278452240047</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.521521296672987</v>
+        <v>1.500961380290151</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.542815409842426</v>
+        <v>1.443159966391166</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.292789525153302</v>
+        <v>1.331261821825177</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>1.79083625506397</v>
+        <v>1.711426062569045</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.578900016902922</v>
+        <v>1.685352940979883</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.366175671223903</v>
+        <v>1.479655330713008</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.525168710128733</v>
+        <v>1.620290101102782</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.627817003658206</v>
+        <v>1.632084290096748</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.602309412957122</v>
+        <v>1.150765292609431</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.566725337108252</v>
+        <v>1.666889945843358</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.517581576968702</v>
+        <v>1.677697083083093</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.686524523956444</v>
+        <v>1.765628162115254</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="F215">
-        <v>1.623873081560491</v>
+        <v>1.452218681186471</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.572295803597122</v>
+        <v>1.66427053422061</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.522908605720542</v>
+        <v>1.53415509912633</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.53653433421045</v>
+        <v>1.48591651805605</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1.514468673201689</v>
+        <v>1.567969251802171</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.70175945918438</v>
+        <v>1.47132836699526</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.609647457207796</v>
+        <v>1.674109305932633</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.233641615906883</v>
+        <v>1.393977809327124</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.608600437938723</v>
+        <v>1.342211851340921</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.33179617816949</v>
+        <v>1.249275063456865</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.392213163519949</v>
+        <v>1.193164280245251</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.446376433779185</v>
+        <v>1.616523961198089</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.589376694252345</v>
+        <v>1.391143001003686</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>1.816426323186144</v>
+        <v>1.209079381727957</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.136449893145616</v>
+        <v>1.511972139518718</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.389639088471504</v>
+        <v>1.397314968735223</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.583574851958692</v>
+        <v>1.631193068074886</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1.59588529691117</v>
+        <v>1.324292096458942</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.367770891418409</v>
+        <v>1.559195479742805</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.414065771499545</v>
+        <v>1.447921071214488</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.238750134934705</v>
+        <v>1.490309554790825</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.309903026577247</v>
+        <v>1.521039023502386</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.426361482921312</v>
+        <v>1.409915077678479</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.53976889774561</v>
+        <v>1.669619422303157</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>1.513356822663432</v>
+        <v>1.581665031114197</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.652431851172308</v>
+        <v>1.594781515314673</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.663531386384393</v>
+        <v>1.40425374337505</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.676371325933878</v>
+        <v>1.536064477992762</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.327765074305424</v>
+        <v>1.318990769462796</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1.506930429664183</v>
+        <v>1.638568419680634</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.378897258083819</v>
+        <v>1.422751263789598</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.355209989620033</v>
+        <v>1.746052549712118</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
-        <v>1.409183750319063</v>
+        <v>1.612372518945471</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.426822082626262</v>
+        <v>1.378606737468222</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.554916861807328</v>
+        <v>1.484529251184928</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.464558074133619</v>
+        <v>1.447739961206997</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.60281103894654</v>
+        <v>1.251559650889613</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.560255239412789</v>
+        <v>1.744985940259851</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.632339060245689</v>
+        <v>1.679750157710168</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.576247784242012</v>
+        <v>1.563523337592005</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.465159836985927</v>
+        <v>1.690206547542836</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.44092142696576</v>
+        <v>1.636096678928219</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.615751617335109</v>
+        <v>1.579740180858133</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/26_localizer.xlsx
+++ b/sequences/26_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
     <t>dog</t>
   </si>
   <si>
     <t>face</t>
   </si>
   <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
     <t>flower/flower042.jpg</t>
   </si>
   <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
     <t>flower/flower041.jpg</t>
   </si>
   <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
   </si>
   <si>
     <t>house/house034.jpg</t>
   </si>
   <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
   </si>
   <si>
     <t>face/face059.jpg</t>
   </si>
   <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
   </si>
   <si>
     <t>flower/flower061.jpg</t>
   </si>
   <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
     <t>dog/dog050.jpg</t>
   </si>
   <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
   </si>
   <si>
     <t>flower/flower054.jpg</t>
   </si>
   <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
   </si>
   <si>
     <t>dog/dog069.jpg</t>
   </si>
   <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
     <t>dog/dog075.jpg</t>
   </si>
   <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
     <t>flower/flower081.jpg</t>
   </si>
   <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
     <t>flower/flower078.jpg</t>
   </si>
   <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
   </si>
   <si>
     <t>dog/dog070.jpg</t>
   </si>
   <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
     <t>face/face065.jpg</t>
   </si>
   <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
     <t>house/house068.jpg</t>
   </si>
   <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
   </si>
   <si>
     <t>flower/flower093.jpg</t>
   </si>
   <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
   </si>
   <si>
     <t>face/face090.jpg</t>
   </si>
   <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
   </si>
   <si>
     <t>dog/dog080.jpg</t>
   </si>
   <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
     <t>house/house094.jpg</t>
   </si>
   <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
   </si>
   <si>
     <t>dog/dog092.jpg</t>
   </si>
   <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
     <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.591651308030899</v>
+        <v>1.532708672141995</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.388476233248062</v>
+        <v>1.559732208829816</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.379259192843689</v>
+        <v>1.489429880019356</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.556450598975899</v>
+        <v>1.555176098730859</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.680548103929152</v>
+        <v>1.456643805104643</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.470671727536056</v>
+        <v>1.330014206107602</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.190762258525246</v>
+        <v>1.193104812829484</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.401159638662124</v>
+        <v>1.282192667251274</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.377101703126054</v>
+        <v>1.758865899137102</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.392332871101805</v>
+        <v>1.349350463729094</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.361852724443433</v>
+        <v>1.503896966238376</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.429148362287207</v>
+        <v>1.422025093132564</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.603903208556306</v>
+        <v>1.281780109978912</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.517933159715287</v>
+        <v>1.511732630672477</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.371539480163145</v>
+        <v>1.383721817171229</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.512931497913036</v>
+        <v>1.377551162967138</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.362643243442869</v>
+        <v>1.631170255061306</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.501151600324478</v>
+        <v>1.206644479475738</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.555535084173169</v>
+        <v>1.628948682041515</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.207753886646434</v>
+        <v>1.258041789000921</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.750689543667583</v>
+        <v>1.615423353710163</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.62995579983722</v>
+        <v>1.468043532602374</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.606348443364441</v>
+        <v>1.547793623116612</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.344541346132489</v>
+        <v>1.288280931496809</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.44909669029162</v>
+        <v>1.534279979352305</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.400788753641609</v>
+        <v>1.15677583954208</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.258834301690546</v>
+        <v>1.4567013538697</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.513198183012064</v>
+        <v>1.499961078519675</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.738404696066525</v>
+        <v>1.361483727057608</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.603921418267211</v>
+        <v>1.482584551360714</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.814311476194541</v>
+        <v>1.656990252183856</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.534669294632615</v>
+        <v>1.425157669809648</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.674577925747845</v>
+        <v>1.615872891731344</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.481726084396048</v>
+        <v>1.254432441322677</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.436371463039974</v>
+        <v>1.385621732996563</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.339224092346824</v>
+        <v>1.366564695640719</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.625707712544234</v>
+        <v>1.477740567183309</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.228247479595294</v>
+        <v>1.180244930128067</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.448731064376467</v>
+        <v>1.499832978951692</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.525704219456489</v>
+        <v>1.59047728872948</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.53318382498129</v>
+        <v>1.460345659006523</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1.421930636458516</v>
+        <v>1.43500563303519</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>1.323674838077066</v>
+        <v>1.452474145769166</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.561144487917416</v>
+        <v>1.501981638467403</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.556069450792696</v>
+        <v>1.654586025803576</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.370393452144983</v>
+        <v>1.475064267269547</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.71231469544001</v>
+        <v>1.451967139561863</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.500494126473585</v>
+        <v>1.296166716018463</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.284457737742958</v>
+        <v>1.452586176798505</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.609881502500613</v>
+        <v>1.54471917988449</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.412192770705535</v>
+        <v>1.559905121438933</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.44310180250518</v>
+        <v>1.41017835752566</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.753183091166558</v>
+        <v>1.653522324144015</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>1.401301935906882</v>
+        <v>1.66078971496337</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.322986043720027</v>
+        <v>1.520150374000747</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>1.309486273155311</v>
+        <v>1.514448988407882</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.56229338044765</v>
+        <v>1.418616115915818</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.579563419251528</v>
+        <v>1.632465920141595</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.36388872054113</v>
+        <v>1.526957002206171</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.588605448239909</v>
+        <v>1.542716261965856</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.345486465523253</v>
+        <v>1.369099008974689</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.305047756033789</v>
+        <v>1.544091544235859</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.538479948580563</v>
+        <v>1.6043900386409</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.489878578389899</v>
+        <v>1.616615184950748</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.674003724405775</v>
+        <v>1.459919440761082</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1.155850867590982</v>
+        <v>1.484626655377826</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.641827060579197</v>
+        <v>1.725508268293242</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.564102994888549</v>
+        <v>1.440129404332432</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.564533711345766</v>
+        <v>1.562476157584894</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.540986829708461</v>
+        <v>1.61312396057281</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1.245082468921277</v>
+        <v>1.53921397581026</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.905521984642086</v>
+        <v>1.277300467905355</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.509139884773614</v>
+        <v>1.578306522509016</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.339349644676784</v>
+        <v>1.273675940222718</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.37072840663954</v>
+        <v>1.461295873534943</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.419556263254203</v>
+        <v>1.395301499221136</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.285827716125442</v>
+        <v>1.417572829245425</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.41739618172735</v>
+        <v>1.346596389833595</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.550749543151853</v>
+        <v>1.433609261218911</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.233606285573861</v>
+        <v>1.378260867849858</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.404567760655038</v>
+        <v>1.41320957799192</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.331667205593767</v>
+        <v>1.640549326970951</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.57977686365728</v>
+        <v>1.571617675153989</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.427071974601815</v>
+        <v>1.546261749266397</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.600303656681487</v>
+        <v>1.759950211212268</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.571258417424941</v>
+        <v>1.44691478490333</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.702091643904069</v>
+        <v>1.491725288301168</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.464800978913766</v>
+        <v>1.339319685212732</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.565649120938402</v>
+        <v>1.53819035522399</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.312196505002462</v>
+        <v>1.724188696576473</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.496481964801175</v>
+        <v>1.297954662381017</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.590474875150246</v>
+        <v>1.4546527741654</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.360476970245885</v>
+        <v>1.686621553090996</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.46459895993292</v>
+        <v>1.456216290759895</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.320917785119139</v>
+        <v>1.591168335947704</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.782665617669794</v>
+        <v>1.939878542802266</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.384333996798203</v>
+        <v>1.437541538656335</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.426465325646786</v>
+        <v>1.471778478651731</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.477122981539443</v>
+        <v>1.559037046498699</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.258455407828155</v>
+        <v>1.683352086467293</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.664718889578697</v>
+        <v>1.636805244670013</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.628613615537869</v>
+        <v>1.599433941334789</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.657671957307433</v>
+        <v>1.545288872324976</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.504879940306888</v>
+        <v>1.43625751300791</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.33560331853139</v>
+        <v>1.682824357180634</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.396788728656975</v>
+        <v>1.69815634206459</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.58018457349447</v>
+        <v>1.554263360422764</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.704635559723547</v>
+        <v>1.432035787138096</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>1.37115272142088</v>
+        <v>1.740133328520025</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>1.415322837353138</v>
+        <v>1.428283452739119</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.454802565649674</v>
+        <v>1.58644501272997</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.39966766820604</v>
+        <v>1.39137963920279</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.666676211645943</v>
+        <v>1.613470288681485</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.680288881039212</v>
+        <v>1.460971742592191</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.492272276493709</v>
+        <v>1.182707487921633</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.346806906233377</v>
+        <v>1.631023960138671</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.232484226570062</v>
+        <v>1.503876171154105</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.430904303253241</v>
+        <v>1.328244673748965</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.437218147099346</v>
+        <v>1.475387912111255</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.650939324748527</v>
+        <v>1.570557789778303</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.369744092413525</v>
+        <v>1.673130390144182</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.309888555396362</v>
+        <v>1.528110444424247</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.559269887949841</v>
+        <v>1.448871876564633</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.699383760176723</v>
+        <v>1.145252392412648</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.656761829165464</v>
+        <v>1.369743496623496</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.567235642044893</v>
+        <v>1.447442633295177</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.432362350065087</v>
+        <v>1.496528192133152</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.700556971082367</v>
+        <v>1.29472886059528</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>1.368611813595169</v>
+        <v>1.684488862115823</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.472380784419873</v>
+        <v>1.504768830723789</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.570080377612651</v>
+        <v>1.45843385684603</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.307968931523199</v>
+        <v>1.288374808664209</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.5150049987147</v>
+        <v>1.291227126990635</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.513585807328585</v>
+        <v>1.522605064671712</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.48908299346431</v>
+        <v>1.494079459070967</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.336479686299549</v>
+        <v>1.652481966274898</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.459633865947828</v>
+        <v>1.277189952681328</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.654287661302107</v>
+        <v>1.598436763206737</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.551200713040946</v>
+        <v>1.645382986862606</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.467920947600552</v>
+        <v>1.43520958878725</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.834391885177124</v>
+        <v>1.346902226222021</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.673213095504786</v>
+        <v>1.218327753430993</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.410818547943991</v>
+        <v>1.494322105001938</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.582730031371474</v>
+        <v>1.592287697660652</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.452291937483967</v>
+        <v>1.372501646049481</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.725267385978466</v>
+        <v>1.716901670575779</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.40820286307491</v>
+        <v>1.55849017638495</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.854017730653914</v>
+        <v>1.69563453721187</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>1.515545665579956</v>
+        <v>1.279936723063152</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.719989133780473</v>
+        <v>1.644210193352593</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.51034722629298</v>
+        <v>1.581944439224228</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.63689966133783</v>
+        <v>1.598768141961432</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.431094250305974</v>
+        <v>1.634771481562604</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.649557738281552</v>
+        <v>1.720055914224304</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.570426698201656</v>
+        <v>1.543382937783618</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.612164786854241</v>
+        <v>1.451283859335447</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.595177249455463</v>
+        <v>1.211800111564681</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.554491160891315</v>
+        <v>1.536765146616793</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.584377101683233</v>
+        <v>1.389562766802806</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.459982683804297</v>
+        <v>1.507932515182474</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.647957692259227</v>
+        <v>1.660250021848306</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.525650753153637</v>
+        <v>1.513939154070946</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.515017661637201</v>
+        <v>1.45997811815227</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.667153052107335</v>
+        <v>1.44814983674784</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.507290864466431</v>
+        <v>1.436289119945538</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.579682118304892</v>
+        <v>1.428050647001043</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.586985424901217</v>
+        <v>1.635982987006482</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.528199832212801</v>
+        <v>1.820607567000169</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.487469346328373</v>
+        <v>1.437425573929708</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1.602676494743381</v>
+        <v>1.500653030430791</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.492689312230525</v>
+        <v>1.569356338953549</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.382748535665268</v>
+        <v>1.334795190882889</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.404860719218654</v>
+        <v>1.355219220717637</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.793649847107654</v>
+        <v>1.318317954594431</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.318699940422728</v>
+        <v>1.226394723431899</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.462280211378704</v>
+        <v>1.673395094461164</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.26975882950947</v>
+        <v>1.503876754358945</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.667942555790124</v>
+        <v>1.440820927232033</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.389459390434272</v>
+        <v>1.483978522527188</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.439371081057549</v>
+        <v>1.886592501309181</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.141463693899198</v>
+        <v>1.508948758136415</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.829587002188116</v>
+        <v>1.711434155745686</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.486128324020593</v>
+        <v>1.472860525499576</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.359644848431582</v>
+        <v>1.40407450776542</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.653641563066728</v>
+        <v>1.326955143235531</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.418237461277028</v>
+        <v>1.614844136911214</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.605900666579057</v>
+        <v>1.520833190958039</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.649799650780003</v>
+        <v>1.488987216516544</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.622962850919775</v>
+        <v>1.558015601142457</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.54399135057168</v>
+        <v>1.831294568984166</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.60182414376692</v>
+        <v>1.707935532499855</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.548988119030358</v>
+        <v>1.336952075886567</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.696604414352706</v>
+        <v>1.784437629390772</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.353597937864491</v>
+        <v>1.699159203228808</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.590375902075439</v>
+        <v>1.660243104751058</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.579526493330644</v>
+        <v>1.430485240069389</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.387399369359122</v>
+        <v>1.574483389766648</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.731452090720647</v>
+        <v>1.67309418270309</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.499423700101025</v>
+        <v>1.730781485485822</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.650653148268673</v>
+        <v>1.49490584106992</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.707278452240047</v>
+        <v>1.488449776197254</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.500961380290151</v>
+        <v>1.473376197994806</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.443159966391166</v>
+        <v>1.478833989630537</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.331261821825177</v>
+        <v>1.293410831049858</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.711426062569045</v>
+        <v>1.629846346035667</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207">
-        <v>1.685352940979883</v>
+        <v>1.436689612419988</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.479655330713008</v>
+        <v>1.549376854403448</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.620290101102782</v>
+        <v>1.643007184422008</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
-        <v>1.632084290096748</v>
+        <v>1.397459909272071</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.150765292609431</v>
+        <v>1.566214157267016</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.666889945843358</v>
+        <v>1.814523099006333</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.677697083083093</v>
+        <v>1.662856074475003</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.765628162115254</v>
+        <v>1.689702685986012</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>1.452218681186471</v>
+        <v>1.341823397102486</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.66427053422061</v>
+        <v>1.313948530857602</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.53415509912633</v>
+        <v>1.614863149766556</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.48591651805605</v>
+        <v>1.512333120907833</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.567969251802171</v>
+        <v>1.574206234041716</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.47132836699526</v>
+        <v>1.494662914720481</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.674109305932633</v>
+        <v>1.441765228846067</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.393977809327124</v>
+        <v>1.629612726350038</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.342211851340921</v>
+        <v>1.743465785485182</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.249275063456865</v>
+        <v>1.553281383250088</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.193164280245251</v>
+        <v>1.252416223970563</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.616523961198089</v>
+        <v>1.602018406121637</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.391143001003686</v>
+        <v>1.428652121600048</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>1.209079381727957</v>
+        <v>1.39312513430098</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.511972139518718</v>
+        <v>1.536091307224331</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.397314968735223</v>
+        <v>1.759336068888643</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.631193068074886</v>
+        <v>1.441083729311678</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1.324292096458942</v>
+        <v>1.701080559429406</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.559195479742805</v>
+        <v>1.532632076636729</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.447921071214488</v>
+        <v>1.338406448760091</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.490309554790825</v>
+        <v>1.193817312034913</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.521039023502386</v>
+        <v>1.555547162611348</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.409915077678479</v>
+        <v>1.317941980502578</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.669619422303157</v>
+        <v>1.462457637814393</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>1.581665031114197</v>
+        <v>1.438866071425177</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
-        <v>1.594781515314673</v>
+        <v>1.514195318318738</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.40425374337505</v>
+        <v>1.693320038823739</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.536064477992762</v>
+        <v>1.815037118571745</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.318990769462796</v>
+        <v>1.463928017836736</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.638568419680634</v>
+        <v>1.593426640215628</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.422751263789598</v>
+        <v>1.672474812243608</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.746052549712118</v>
+        <v>1.708903781989868</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>1.612372518945471</v>
+        <v>1.495139959482462</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.378606737468222</v>
+        <v>1.498591775092168</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.484529251184928</v>
+        <v>1.318551385337988</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.447739961206997</v>
+        <v>1.597726757650359</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.251559650889613</v>
+        <v>1.53280096489582</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.744985940259851</v>
+        <v>1.65453793659349</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.679750157710168</v>
+        <v>1.485797551853143</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.563523337592005</v>
+        <v>1.463100165415786</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.690206547542836</v>
+        <v>1.575538823717105</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.636096678928219</v>
+        <v>1.370054636658089</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.579740180858133</v>
+        <v>1.741611662566822</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/26_localizer.xlsx
+++ b/sequences/26_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
     <t>face</t>
   </si>
   <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
     <t>house/house032.jpg</t>
   </si>
   <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
     <t>house/house039.jpg</t>
   </si>
   <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
   </si>
   <si>
     <t>face/face053.jpg</t>
   </si>
   <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
     <t>face/face055.jpg</t>
   </si>
   <si>
-    <t>flower/flower065.jpg</t>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
   </si>
   <si>
     <t>house/house055.jpg</t>
   </si>
   <si>
-    <t>dog/dog053.jpg</t>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
   </si>
   <si>
     <t>flower/flower062.jpg</t>
   </si>
   <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
     <t>flower/flower050.jpg</t>
   </si>
   <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
     <t>dog/dog058.jpg</t>
   </si>
   <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
   </si>
   <si>
     <t>house/house077.jpg</t>
   </si>
   <si>
-    <t>dog/dog076.jpg</t>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
   </si>
   <si>
     <t>flower/flower069.jpg</t>
   </si>
   <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
     <t>flower/flower067.jpg</t>
   </si>
   <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
   </si>
   <si>
     <t>house/house070.jpg</t>
   </si>
   <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
     <t>face/face077.jpg</t>
   </si>
   <si>
     <t>face/face073.jpg</t>
   </si>
   <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
   </si>
   <si>
     <t>dog/dog091.jpg</t>
   </si>
   <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
   </si>
   <si>
     <t>dog/dog082.jpg</t>
   </si>
   <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
     <t>face/face092.jpg</t>
   </si>
   <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
     <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.532708672141995</v>
+        <v>1.329347374433091</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.559732208829816</v>
+        <v>1.556799301689465</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.489429880019356</v>
+        <v>1.540181454525305</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.555176098730859</v>
+        <v>1.629886824085006</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.456643805104643</v>
+        <v>1.4262854573783</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.330014206107602</v>
+        <v>1.167885482500301</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.193104812829484</v>
+        <v>1.499909889940338</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.282192667251274</v>
+        <v>1.372855362220584</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.758865899137102</v>
+        <v>1.516062565308832</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.349350463729094</v>
+        <v>1.417155365254422</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.503896966238376</v>
+        <v>1.461632723581096</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.422025093132564</v>
+        <v>1.532193013126552</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.281780109978912</v>
+        <v>1.332611094877675</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.511732630672477</v>
+        <v>1.380013697456632</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.383721817171229</v>
+        <v>1.690189775769407</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.377551162967138</v>
+        <v>1.455935603632839</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.631170255061306</v>
+        <v>1.447126210830028</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.206644479475738</v>
+        <v>1.685420066539546</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.628948682041515</v>
+        <v>1.626231373580938</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.258041789000921</v>
+        <v>1.591642886271449</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.615423353710163</v>
+        <v>1.501438473846946</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.468043532602374</v>
+        <v>1.390844751699167</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.547793623116612</v>
+        <v>1.398864351505707</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.288280931496809</v>
+        <v>1.358861870299333</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.534279979352305</v>
+        <v>1.53052425455801</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1.15677583954208</v>
+        <v>1.660897120730141</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.4567013538697</v>
+        <v>1.396114147999164</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.499961078519675</v>
+        <v>1.426869821437798</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.361483727057608</v>
+        <v>1.16569224689958</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.482584551360714</v>
+        <v>1.529319128043992</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.656990252183856</v>
+        <v>1.460761492537135</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.425157669809648</v>
+        <v>1.323032023210033</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.615872891731344</v>
+        <v>1.679327755172127</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.254432441322677</v>
+        <v>1.205522573255142</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.385621732996563</v>
+        <v>1.372917910948055</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.366564695640719</v>
+        <v>1.675221968539206</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.477740567183309</v>
+        <v>1.407299743273839</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.180244930128067</v>
+        <v>1.363503294784037</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.499832978951692</v>
+        <v>1.532229735983791</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.59047728872948</v>
+        <v>1.517342497165244</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.460345659006523</v>
+        <v>1.621516871030733</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.43500563303519</v>
+        <v>1.712529441706812</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.452474145769166</v>
+        <v>1.461880749159324</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.501981638467403</v>
+        <v>1.465619412527462</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.654586025803576</v>
+        <v>1.631828406218091</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.475064267269547</v>
+        <v>1.185469421085172</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.451967139561863</v>
+        <v>1.35694741514285</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.296166716018463</v>
+        <v>1.536924677175075</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.452586176798505</v>
+        <v>1.340109283607834</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.54471917988449</v>
+        <v>1.592062128815045</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.559905121438933</v>
+        <v>1.620925737082117</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.41017835752566</v>
+        <v>1.503708310519216</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.653522324144015</v>
+        <v>1.322374625048623</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.66078971496337</v>
+        <v>1.351097065308297</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.520150374000747</v>
+        <v>1.570328770423492</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1.514448988407882</v>
+        <v>1.409612228809084</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.418616115915818</v>
+        <v>1.589577430940029</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.632465920141595</v>
+        <v>1.887304509569966</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.526957002206171</v>
+        <v>1.237262056709308</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.542716261965856</v>
+        <v>1.751830346413362</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.369099008974689</v>
+        <v>1.439803414874867</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.544091544235859</v>
+        <v>1.691364042248164</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.6043900386409</v>
+        <v>1.286048507385648</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.616615184950748</v>
+        <v>1.651660326130565</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.459919440761082</v>
+        <v>1.619512406357984</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.484626655377826</v>
+        <v>1.299306718309675</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.725508268293242</v>
+        <v>1.25663871873713</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.440129404332432</v>
+        <v>1.472550570042557</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.562476157584894</v>
+        <v>1.564044331701917</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.61312396057281</v>
+        <v>1.541871875443869</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.53921397581026</v>
+        <v>1.738116877641447</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.277300467905355</v>
+        <v>1.254124758059115</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.578306522509016</v>
+        <v>1.466773471911149</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.273675940222718</v>
+        <v>1.613053293389888</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.461295873534943</v>
+        <v>1.414698939458138</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.395301499221136</v>
+        <v>1.169859117427673</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.417572829245425</v>
+        <v>1.56188712733765</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.346596389833595</v>
+        <v>1.544610805684916</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.433609261218911</v>
+        <v>1.8005662032481</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.378260867849858</v>
+        <v>1.330639818787812</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.41320957799192</v>
+        <v>1.100940528094633</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.640549326970951</v>
+        <v>1.541164005130951</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.571617675153989</v>
+        <v>1.454105910574419</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.546261749266397</v>
+        <v>1.38911958228658</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.759950211212268</v>
+        <v>1.287923195751471</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.44691478490333</v>
+        <v>1.378529982143357</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.491725288301168</v>
+        <v>1.625465688985246</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.339319685212732</v>
+        <v>1.425286499906323</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.53819035522399</v>
+        <v>1.765489599252262</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.724188696576473</v>
+        <v>1.541584512483885</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.297954662381017</v>
+        <v>1.543527409146015</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.4546527741654</v>
+        <v>1.564194002125056</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.686621553090996</v>
+        <v>1.567309460476698</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.456216290759895</v>
+        <v>1.72042749499254</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.591168335947704</v>
+        <v>1.385704163900234</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.939878542802266</v>
+        <v>1.521047377026985</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.437541538656335</v>
+        <v>1.746252728908394</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.471778478651731</v>
+        <v>1.544450458065939</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>1</v>
       </c>
       <c r="F100">
-        <v>1.559037046498699</v>
+        <v>1.454108437135127</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.683352086467293</v>
+        <v>1.321314090696416</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.636805244670013</v>
+        <v>1.330787280633766</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.599433941334789</v>
+        <v>1.48865676915092</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.545288872324976</v>
+        <v>1.411108742831785</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.43625751300791</v>
+        <v>1.417954901339028</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.682824357180634</v>
+        <v>1.481007861683129</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.69815634206459</v>
+        <v>1.385110652158159</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.554263360422764</v>
+        <v>1.6373539902365</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.432035787138096</v>
+        <v>1.316755530261134</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>1.740133328520025</v>
+        <v>1.587098305447222</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="F111">
-        <v>1.428283452739119</v>
+        <v>1.373628284601525</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.58644501272997</v>
+        <v>1.184011996487564</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.39137963920279</v>
+        <v>1.650557794845331</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.613470288681485</v>
+        <v>1.73297228965832</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.460971742592191</v>
+        <v>1.456465574788953</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.182707487921633</v>
+        <v>1.620387152562919</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.631023960138671</v>
+        <v>1.419207205342151</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.503876171154105</v>
+        <v>1.585970001671499</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.328244673748965</v>
+        <v>1.594460599168967</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.475387912111255</v>
+        <v>1.437809084991739</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.570557789778303</v>
+        <v>1.720325073204821</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.673130390144182</v>
+        <v>1.716182291634675</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.528110444424247</v>
+        <v>1.649120469937434</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.448871876564633</v>
+        <v>1.761641699687965</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.145252392412648</v>
+        <v>1.771620685600303</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.369743496623496</v>
+        <v>1.433596350109362</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.447442633295177</v>
+        <v>1.384214255710854</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.496528192133152</v>
+        <v>1.606809067873871</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.29472886059528</v>
+        <v>1.335960326275455</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>1.684488862115823</v>
+        <v>1.491977403963139</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.504768830723789</v>
+        <v>1.644907247801698</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.45843385684603</v>
+        <v>1.528167487250042</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.288374808664209</v>
+        <v>1.263243566302859</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.291227126990635</v>
+        <v>1.542376884560972</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.522605064671712</v>
+        <v>1.61479938335924</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.494079459070967</v>
+        <v>1.404060060177582</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.652481966274898</v>
+        <v>1.465660056754328</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.277189952681328</v>
+        <v>1.583761176660669</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.598436763206737</v>
+        <v>1.433426214046652</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.645382986862606</v>
+        <v>1.462109954291441</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.43520958878725</v>
+        <v>1.380087609659409</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.346902226222021</v>
+        <v>1.426198336733547</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.218327753430993</v>
+        <v>1.653167805767788</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.494322105001938</v>
+        <v>1.190110033376218</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.592287697660652</v>
+        <v>1.570228141282066</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.372501646049481</v>
+        <v>1.581624907504301</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.716901670575779</v>
+        <v>1.584804406838771</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="F148">
-        <v>1.55849017638495</v>
+        <v>1.355306868500184</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.69563453721187</v>
+        <v>1.584242178092173</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.279936723063152</v>
+        <v>1.432087142160391</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>1.644210193352593</v>
+        <v>1.381460010001968</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.581944439224228</v>
+        <v>1.514917002036709</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.598768141961432</v>
+        <v>1.590459927079601</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.634771481562604</v>
+        <v>1.519051055162558</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>1.720055914224304</v>
+        <v>1.774734484785556</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.543382937783618</v>
+        <v>1.52446713738961</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.451283859335447</v>
+        <v>1.78671262508892</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.211800111564681</v>
+        <v>1.367023163063031</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.536765146616793</v>
+        <v>1.606581258888109</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.389562766802806</v>
+        <v>1.318540815107738</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.507932515182474</v>
+        <v>1.517018983737346</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.660250021848306</v>
+        <v>1.822244761853043</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.513939154070946</v>
+        <v>1.476693754105685</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.45997811815227</v>
+        <v>1.184836421566359</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.44814983674784</v>
+        <v>1.767640030340655</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.436289119945538</v>
+        <v>1.355759608030921</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.428050647001043</v>
+        <v>1.457409943484895</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.635982987006482</v>
+        <v>1.693397696716481</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.820607567000169</v>
+        <v>1.389179816298835</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.437425573929708</v>
+        <v>1.383371716273083</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.500653030430791</v>
+        <v>1.426756246034447</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.569356338953549</v>
+        <v>1.634863076376821</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.334795190882889</v>
+        <v>1.374858276725655</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.355219220717637</v>
+        <v>1.464593572059156</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.318317954594431</v>
+        <v>1.302388957364413</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.226394723431899</v>
+        <v>1.625067046461796</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.673395094461164</v>
+        <v>1.724501265567398</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.503876754358945</v>
+        <v>1.856776087830205</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.440820927232033</v>
+        <v>1.505798500765386</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.483978522527188</v>
+        <v>1.628746913578078</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.886592501309181</v>
+        <v>1.58397852293579</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.508948758136415</v>
+        <v>1.435717697857152</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.711434155745686</v>
+        <v>1.287926412037938</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.472860525499576</v>
+        <v>1.439747448495838</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.40407450776542</v>
+        <v>1.428431197784118</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.326955143235531</v>
+        <v>1.590749313610824</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.614844136911214</v>
+        <v>1.496267758583847</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.520833190958039</v>
+        <v>1.562614388550986</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.488987216516544</v>
+        <v>1.582279920874455</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.558015601142457</v>
+        <v>1.466282087371893</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1.831294568984166</v>
+        <v>1.374054471366526</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.707935532499855</v>
+        <v>1.559754579986921</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>1.336952075886567</v>
+        <v>1.514083024451777</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.784437629390772</v>
+        <v>1.591187226039067</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.699159203228808</v>
+        <v>1.6330916355534</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.660243104751058</v>
+        <v>1.537381450406568</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.430485240069389</v>
+        <v>1.730089035760967</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.574483389766648</v>
+        <v>1.692323358712732</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.67309418270309</v>
+        <v>1.603666463274417</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.730781485485822</v>
+        <v>1.474825808826568</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.49490584106992</v>
+        <v>1.507059702184413</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.488449776197254</v>
+        <v>1.528100220763776</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.473376197994806</v>
+        <v>1.562012554956526</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.478833989630537</v>
+        <v>1.489243250975626</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.293410831049858</v>
+        <v>1.325589601569425</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.629846346035667</v>
+        <v>1.639605476865237</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.436689612419988</v>
+        <v>1.431922376480543</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.549376854403448</v>
+        <v>1.386853969202311</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.643007184422008</v>
+        <v>1.6058336774485</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1.397459909272071</v>
+        <v>1.428535072036463</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.566214157267016</v>
+        <v>1.521936162912715</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.814523099006333</v>
+        <v>1.533759245144072</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.662856074475003</v>
+        <v>1.610557904903406</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.689702685986012</v>
+        <v>1.602604356878841</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.341823397102486</v>
+        <v>1.408138975507652</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.313948530857602</v>
+        <v>1.588197360332535</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.614863149766556</v>
+        <v>1.170794709493411</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.512333120907833</v>
+        <v>1.478049026480305</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.574206234041716</v>
+        <v>1.506486904129648</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.494662914720481</v>
+        <v>1.395272889031492</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.441765228846067</v>
+        <v>1.58736070305873</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.629612726350038</v>
+        <v>1.643737856500975</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.743465785485182</v>
+        <v>1.879136957928534</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.553281383250088</v>
+        <v>1.623392974737925</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.252416223970563</v>
+        <v>1.38160046659281</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="F226">
-        <v>1.602018406121637</v>
+        <v>1.560827459976538</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.428652121600048</v>
+        <v>1.564463619692962</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.39312513430098</v>
+        <v>1.455479194161291</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.536091307224331</v>
+        <v>1.554500644531399</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.759336068888643</v>
+        <v>1.802336599516213</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.441083729311678</v>
+        <v>1.555222813229218</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1.701080559429406</v>
+        <v>1.616430112491012</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.532632076636729</v>
+        <v>1.619937244397384</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.338406448760091</v>
+        <v>1.257279245017463</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.193817312034913</v>
+        <v>1.529919989216579</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.555547162611348</v>
+        <v>1.681006426438818</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.317941980502578</v>
+        <v>1.71541308614934</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.462457637814393</v>
+        <v>1.586744509884764</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.438866071425177</v>
+        <v>1.495143328756363</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1.514195318318738</v>
+        <v>1.838342113430972</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.693320038823739</v>
+        <v>1.39666315805191</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.815037118571745</v>
+        <v>1.280648973791256</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.463928017836736</v>
+        <v>1.561802838238114</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.593426640215628</v>
+        <v>1.679473933337612</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.672474812243608</v>
+        <v>1.619699810142394</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.708903781989868</v>
+        <v>1.482216120637123</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.495139959482462</v>
+        <v>1.867895906807158</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.498591775092168</v>
+        <v>1.591636132785035</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.318551385337988</v>
+        <v>1.441946820081196</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.597726757650359</v>
+        <v>1.687437047576469</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.53280096489582</v>
+        <v>1.563963039514045</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.65453793659349</v>
+        <v>1.49375077480083</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.485797551853143</v>
+        <v>1.320177169812396</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.463100165415786</v>
+        <v>1.382972825127431</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.575538823717105</v>
+        <v>1.523305600474089</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.370054636658089</v>
+        <v>1.359112045470164</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="F257">
-        <v>1.741611662566822</v>
+        <v>1.405028718910554</v>
       </c>
     </row>
   </sheetData>
